--- a/output.xlsx
+++ b/output.xlsx
@@ -10,16 +10,14 @@
     <sheet name="all_fund_prices" sheetId="1" r:id="rId1"/>
     <sheet name="fund_performance" sheetId="2" r:id="rId2"/>
     <sheet name="all_fund_profit_percentages" sheetId="3" r:id="rId3"/>
-    <sheet name="filtered_intersection_funds" sheetId="4" r:id="rId4"/>
-    <sheet name="intersection_funds" sheetId="5" r:id="rId5"/>
-    <sheet name="intersection_funds_configurable" sheetId="6" r:id="rId6"/>
+    <sheet name="combined_funds" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="1226">
   <si>
     <t>Fund</t>
   </si>
@@ -3688,6 +3686,15 @@
   </si>
   <si>
     <t>26 Weeks</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Non-filtered Funds</t>
+  </si>
+  <si>
+    <t>Filtered Funds</t>
   </si>
 </sst>
 </file>
@@ -99865,3879 +99872,1724 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B2" t="s">
-        <v>847</v>
-      </c>
-      <c r="C2">
-        <v>5.855</v>
-      </c>
-      <c r="D2">
-        <v>10.475</v>
-      </c>
-      <c r="E2">
-        <v>14.588</v>
-      </c>
-      <c r="F2">
-        <v>18.399</v>
-      </c>
-      <c r="G2">
-        <v>26.696</v>
-      </c>
-      <c r="H2">
-        <v>24.074</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>265</v>
-      </c>
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="B3" t="s">
-        <v>845</v>
-      </c>
-      <c r="C3">
-        <v>5.804</v>
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>655</v>
       </c>
       <c r="D3">
-        <v>9.710000000000001</v>
+        <v>6.157</v>
       </c>
       <c r="E3">
-        <v>13.46</v>
+        <v>8.132999999999999</v>
       </c>
       <c r="F3">
-        <v>18.042</v>
+        <v>8.773</v>
       </c>
       <c r="G3">
-        <v>23.292</v>
+        <v>16.526</v>
       </c>
       <c r="H3">
-        <v>21.072</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>278</v>
-      </c>
+        <v>18.592</v>
+      </c>
+      <c r="I3">
+        <v>15.008</v>
+      </c>
+      <c r="J3">
+        <v>16.649</v>
+      </c>
+      <c r="K3">
+        <v>16.097</v>
+      </c>
+      <c r="L3">
+        <v>16.158</v>
+      </c>
+      <c r="M3">
+        <v>17.082</v>
+      </c>
+      <c r="N3">
+        <v>20.733</v>
+      </c>
+      <c r="O3">
+        <v>20.865</v>
+      </c>
+      <c r="P3">
+        <v>24.619</v>
+      </c>
+      <c r="Q3">
+        <v>29.215</v>
+      </c>
+      <c r="R3">
+        <v>27.499</v>
+      </c>
+      <c r="S3">
+        <v>19.946</v>
+      </c>
+      <c r="T3">
+        <v>15.128</v>
+      </c>
+      <c r="U3">
+        <v>19.362</v>
+      </c>
+      <c r="V3">
+        <v>23.572</v>
+      </c>
+      <c r="W3">
+        <v>22.271</v>
+      </c>
+      <c r="X3">
+        <v>18.912</v>
+      </c>
+      <c r="Y3">
+        <v>27.572</v>
+      </c>
+      <c r="Z3">
+        <v>34.902</v>
+      </c>
+      <c r="AA3">
+        <v>41.474</v>
+      </c>
+      <c r="AB3">
+        <v>48.92</v>
+      </c>
+      <c r="AC3">
+        <v>55.972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="B4" t="s">
-        <v>858</v>
-      </c>
-      <c r="C4">
-        <v>5.91</v>
+        <v>218</v>
+      </c>
+      <c r="C4" t="s">
+        <v>798</v>
       </c>
       <c r="D4">
-        <v>8.007</v>
+        <v>6.629</v>
       </c>
       <c r="E4">
-        <v>10.286</v>
+        <v>9.724</v>
       </c>
       <c r="F4">
-        <v>17.298</v>
+        <v>12.948</v>
       </c>
       <c r="G4">
-        <v>21.442</v>
+        <v>19.937</v>
       </c>
       <c r="H4">
-        <v>18.573</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>91</v>
-      </c>
+        <v>24.684</v>
+      </c>
+      <c r="I4">
+        <v>19.557</v>
+      </c>
+      <c r="J4">
+        <v>18.993</v>
+      </c>
+      <c r="K4">
+        <v>17.452</v>
+      </c>
+      <c r="L4">
+        <v>17.696</v>
+      </c>
+      <c r="M4">
+        <v>19.873</v>
+      </c>
+      <c r="N4">
+        <v>24.002</v>
+      </c>
+      <c r="O4">
+        <v>21.739</v>
+      </c>
+      <c r="P4">
+        <v>25.235</v>
+      </c>
+      <c r="Q4">
+        <v>26.704</v>
+      </c>
+      <c r="R4">
+        <v>24.684</v>
+      </c>
+      <c r="S4">
+        <v>19.055</v>
+      </c>
+      <c r="T4">
+        <v>17.941</v>
+      </c>
+      <c r="U4">
+        <v>25.097</v>
+      </c>
+      <c r="V4">
+        <v>30.947</v>
+      </c>
+      <c r="W4">
+        <v>26.281</v>
+      </c>
+      <c r="X4">
+        <v>22.927</v>
+      </c>
+      <c r="Y4">
+        <v>30.495</v>
+      </c>
+      <c r="Z4">
+        <v>33.648</v>
+      </c>
+      <c r="AA4">
+        <v>31.023</v>
+      </c>
+      <c r="AB4">
+        <v>38.716</v>
+      </c>
+      <c r="AC4">
+        <v>47.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="B5" t="s">
-        <v>672</v>
-      </c>
-      <c r="C5">
-        <v>5.017</v>
+        <v>258</v>
+      </c>
+      <c r="C5" t="s">
+        <v>838</v>
       </c>
       <c r="D5">
-        <v>11.415</v>
+        <v>12.362</v>
       </c>
       <c r="E5">
-        <v>17.939</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>24.103</v>
+        <v>16.276</v>
       </c>
       <c r="G5">
-        <v>25.771</v>
+        <v>24.243</v>
       </c>
       <c r="H5">
-        <v>26.874</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
+        <v>31.324</v>
+      </c>
+      <c r="I5">
+        <v>24.764</v>
+      </c>
+      <c r="J5">
+        <v>23.985</v>
+      </c>
+      <c r="K5">
+        <v>19.785</v>
+      </c>
+      <c r="L5">
+        <v>16.466</v>
+      </c>
+      <c r="M5">
+        <v>17.038</v>
+      </c>
+      <c r="N5">
+        <v>29.702</v>
+      </c>
+      <c r="O5">
+        <v>27.663</v>
+      </c>
+      <c r="P5">
+        <v>31.565</v>
+      </c>
+      <c r="Q5">
+        <v>33.035</v>
+      </c>
+      <c r="R5">
+        <v>27.163</v>
+      </c>
+      <c r="S5">
+        <v>23.77</v>
+      </c>
+      <c r="T5">
+        <v>26.937</v>
+      </c>
+      <c r="U5">
+        <v>28.397</v>
+      </c>
+      <c r="V5">
+        <v>35.921</v>
+      </c>
+      <c r="W5">
+        <v>37.49</v>
+      </c>
+      <c r="X5">
+        <v>30.938</v>
+      </c>
+      <c r="Y5">
+        <v>37.809</v>
+      </c>
+      <c r="Z5">
+        <v>48.462</v>
+      </c>
+      <c r="AA5">
+        <v>49.958</v>
+      </c>
+      <c r="AB5">
+        <v>54.632</v>
+      </c>
+      <c r="AC5">
+        <v>57.218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="B6" t="s">
-        <v>683</v>
-      </c>
-      <c r="C6">
-        <v>6.93</v>
+        <v>299</v>
+      </c>
+      <c r="C6" t="s">
+        <v>879</v>
       </c>
       <c r="D6">
-        <v>10.328</v>
+        <v>6.675</v>
       </c>
       <c r="E6">
-        <v>13.483</v>
+        <v>8.827</v>
       </c>
       <c r="F6">
-        <v>18.697</v>
+        <v>12.224</v>
       </c>
       <c r="G6">
-        <v>23.719</v>
+        <v>20.363</v>
       </c>
       <c r="H6">
-        <v>23.582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>218</v>
-      </c>
+        <v>22.76</v>
+      </c>
+      <c r="I6">
+        <v>17.896</v>
+      </c>
+      <c r="J6">
+        <v>19.529</v>
+      </c>
+      <c r="K6">
+        <v>18.544</v>
+      </c>
+      <c r="L6">
+        <v>19.034</v>
+      </c>
+      <c r="M6">
+        <v>20.868</v>
+      </c>
+      <c r="N6">
+        <v>24.173</v>
+      </c>
+      <c r="O6">
+        <v>23.462</v>
+      </c>
+      <c r="P6">
+        <v>25.985</v>
+      </c>
+      <c r="Q6">
+        <v>25.985</v>
+      </c>
+      <c r="R6">
+        <v>23.639</v>
+      </c>
+      <c r="S6">
+        <v>17.096</v>
+      </c>
+      <c r="T6">
+        <v>12.958</v>
+      </c>
+      <c r="U6">
+        <v>16.779</v>
+      </c>
+      <c r="V6">
+        <v>19.034</v>
+      </c>
+      <c r="W6">
+        <v>20.028</v>
+      </c>
+      <c r="X6">
+        <v>18.381</v>
+      </c>
+      <c r="Y6">
+        <v>23.639</v>
+      </c>
+      <c r="Z6">
+        <v>30.363</v>
+      </c>
+      <c r="AA6">
+        <v>32.362</v>
+      </c>
+      <c r="AB6">
+        <v>39.644</v>
+      </c>
+      <c r="AC6">
+        <v>46.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="B7" t="s">
-        <v>798</v>
-      </c>
-      <c r="C7">
-        <v>6.629</v>
+        <v>330</v>
+      </c>
+      <c r="C7" t="s">
+        <v>909</v>
       </c>
       <c r="D7">
-        <v>9.724</v>
+        <v>5.335</v>
       </c>
       <c r="E7">
-        <v>12.948</v>
+        <v>7.562</v>
       </c>
       <c r="F7">
-        <v>19.937</v>
+        <v>11.15</v>
       </c>
       <c r="G7">
-        <v>24.684</v>
+        <v>16.425</v>
       </c>
       <c r="H7">
-        <v>19.557</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>299</v>
-      </c>
+        <v>18.218</v>
+      </c>
+      <c r="I7">
+        <v>13.505</v>
+      </c>
+      <c r="J7">
+        <v>13.393</v>
+      </c>
+      <c r="K7">
+        <v>13.154</v>
+      </c>
+      <c r="L7">
+        <v>14.739</v>
+      </c>
+      <c r="M7">
+        <v>15.124</v>
+      </c>
+      <c r="N7">
+        <v>16.702</v>
+      </c>
+      <c r="O7">
+        <v>15.1</v>
+      </c>
+      <c r="P7">
+        <v>20.034</v>
+      </c>
+      <c r="Q7">
+        <v>20.903</v>
+      </c>
+      <c r="R7">
+        <v>19.891</v>
+      </c>
+      <c r="S7">
+        <v>15.232</v>
+      </c>
+      <c r="T7">
+        <v>11.822</v>
+      </c>
+      <c r="U7">
+        <v>17.363</v>
+      </c>
+      <c r="W7">
+        <v>21.09</v>
+      </c>
+      <c r="X7">
+        <v>19.774</v>
+      </c>
+      <c r="Y7">
+        <v>25.491</v>
+      </c>
+      <c r="Z7">
+        <v>31.357</v>
+      </c>
+      <c r="AA7">
+        <v>31.639</v>
+      </c>
+      <c r="AB7">
+        <v>41.823</v>
+      </c>
+      <c r="AC7">
+        <v>52.379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="B8" t="s">
-        <v>879</v>
-      </c>
-      <c r="C8">
-        <v>6.675</v>
+        <v>336</v>
+      </c>
+      <c r="C8" t="s">
+        <v>915</v>
       </c>
       <c r="D8">
-        <v>8.827</v>
+        <v>2.319</v>
       </c>
       <c r="E8">
-        <v>12.224</v>
+        <v>0.57</v>
       </c>
       <c r="F8">
-        <v>20.363</v>
+        <v>-0.843</v>
       </c>
       <c r="G8">
-        <v>22.76</v>
+        <v>11.709</v>
       </c>
       <c r="H8">
-        <v>17.896</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>261</v>
-      </c>
+        <v>14.239</v>
+      </c>
+      <c r="I8">
+        <v>5.373</v>
+      </c>
+      <c r="J8">
+        <v>5.373</v>
+      </c>
+      <c r="K8">
+        <v>11.356</v>
+      </c>
+      <c r="L8">
+        <v>16.887</v>
+      </c>
+      <c r="M8">
+        <v>22.569</v>
+      </c>
+      <c r="N8">
+        <v>27.437</v>
+      </c>
+      <c r="O8">
+        <v>27.899</v>
+      </c>
+      <c r="P8">
+        <v>26.523</v>
+      </c>
+      <c r="Q8">
+        <v>22.569</v>
+      </c>
+      <c r="R8">
+        <v>20.89</v>
+      </c>
+      <c r="S8">
+        <v>13.141</v>
+      </c>
+      <c r="T8">
+        <v>10.658</v>
+      </c>
+      <c r="U8">
+        <v>16.118</v>
+      </c>
+      <c r="W8">
+        <v>27.899</v>
+      </c>
+      <c r="X8">
+        <v>17.276</v>
+      </c>
+      <c r="Y8">
+        <v>30.741</v>
+      </c>
+      <c r="Z8">
+        <v>30.741</v>
+      </c>
+      <c r="AA8">
+        <v>32.707</v>
+      </c>
+      <c r="AB8">
+        <v>34.733</v>
+      </c>
+      <c r="AC8">
+        <v>50.855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="B9" t="s">
-        <v>841</v>
-      </c>
-      <c r="C9">
-        <v>5.911</v>
+        <v>349</v>
+      </c>
+      <c r="C9" t="s">
+        <v>928</v>
       </c>
       <c r="D9">
-        <v>10.984</v>
+        <v>4.847</v>
       </c>
       <c r="E9">
-        <v>14.409</v>
+        <v>6.791</v>
       </c>
       <c r="F9">
-        <v>19.483</v>
+        <v>8.839</v>
       </c>
       <c r="G9">
-        <v>26.98</v>
+        <v>15.649</v>
       </c>
       <c r="H9">
-        <v>22.386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>264</v>
-      </c>
+        <v>18.619</v>
+      </c>
+      <c r="I9">
+        <v>15.615</v>
+      </c>
+      <c r="J9">
+        <v>16.913</v>
+      </c>
+      <c r="K9">
+        <v>16.711</v>
+      </c>
+      <c r="L9">
+        <v>18.386</v>
+      </c>
+      <c r="M9">
+        <v>18.818</v>
+      </c>
+      <c r="N9">
+        <v>22.658</v>
+      </c>
+      <c r="O9">
+        <v>21.34</v>
+      </c>
+      <c r="P9">
+        <v>24.341</v>
+      </c>
+      <c r="Q9">
+        <v>23.927</v>
+      </c>
+      <c r="R9">
+        <v>23.199</v>
+      </c>
+      <c r="S9">
+        <v>17.38</v>
+      </c>
+      <c r="T9">
+        <v>13.538</v>
+      </c>
+      <c r="U9">
+        <v>19.034</v>
+      </c>
+      <c r="W9">
+        <v>23.362</v>
+      </c>
+      <c r="X9">
+        <v>21.748</v>
+      </c>
+      <c r="Y9">
+        <v>28.796</v>
+      </c>
+      <c r="Z9">
+        <v>34.477</v>
+      </c>
+      <c r="AA9">
+        <v>30.496</v>
+      </c>
+      <c r="AB9">
+        <v>37.724</v>
+      </c>
+      <c r="AC9">
+        <v>44.472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="B10" t="s">
-        <v>844</v>
-      </c>
-      <c r="C10">
-        <v>5.64</v>
+        <v>352</v>
+      </c>
+      <c r="C10" t="s">
+        <v>931</v>
       </c>
       <c r="D10">
-        <v>9.301</v>
+        <v>5.065</v>
       </c>
       <c r="E10">
-        <v>16.451</v>
+        <v>6.972</v>
       </c>
       <c r="F10">
-        <v>21.733</v>
+        <v>8.99</v>
       </c>
       <c r="G10">
-        <v>26.353</v>
+        <v>15.728</v>
       </c>
       <c r="H10">
-        <v>21.733</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>103</v>
-      </c>
+        <v>18.887</v>
+      </c>
+      <c r="I10">
+        <v>16.344</v>
+      </c>
+      <c r="J10">
+        <v>18.048</v>
+      </c>
+      <c r="K10">
+        <v>17.564</v>
+      </c>
+      <c r="L10">
+        <v>18.428</v>
+      </c>
+      <c r="M10">
+        <v>19.397</v>
+      </c>
+      <c r="N10">
+        <v>23.455</v>
+      </c>
+      <c r="O10">
+        <v>21.803</v>
+      </c>
+      <c r="P10">
+        <v>24.949</v>
+      </c>
+      <c r="Q10">
+        <v>23.921</v>
+      </c>
+      <c r="R10">
+        <v>23.605</v>
+      </c>
+      <c r="S10">
+        <v>18.199</v>
+      </c>
+      <c r="T10">
+        <v>13.471</v>
+      </c>
+      <c r="U10">
+        <v>17.821</v>
+      </c>
+      <c r="W10">
+        <v>21.497</v>
+      </c>
+      <c r="X10">
+        <v>19.943</v>
+      </c>
+      <c r="Y10">
+        <v>27.391</v>
+      </c>
+      <c r="Z10">
+        <v>33.208</v>
+      </c>
+      <c r="AA10">
+        <v>30.893</v>
+      </c>
+      <c r="AB10">
+        <v>38.216</v>
+      </c>
+      <c r="AC10">
+        <v>47.111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="B11" t="s">
-        <v>684</v>
-      </c>
-      <c r="C11">
-        <v>5.956</v>
+        <v>405</v>
+      </c>
+      <c r="C11" t="s">
+        <v>984</v>
       </c>
       <c r="D11">
-        <v>10.17</v>
+        <v>6.575</v>
       </c>
       <c r="E11">
-        <v>12.081</v>
+        <v>9.002000000000001</v>
       </c>
       <c r="F11">
-        <v>18.088</v>
+        <v>10.016</v>
       </c>
       <c r="G11">
-        <v>22.026</v>
+        <v>20.757</v>
       </c>
       <c r="H11">
-        <v>22.103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>149</v>
-      </c>
+        <v>25.195</v>
+      </c>
+      <c r="I11">
+        <v>18.829</v>
+      </c>
+      <c r="J11">
+        <v>18.34</v>
+      </c>
+      <c r="K11">
+        <v>17.133</v>
+      </c>
+      <c r="L11">
+        <v>16.252</v>
+      </c>
+      <c r="M11">
+        <v>15.55</v>
+      </c>
+      <c r="N11">
+        <v>20.108</v>
+      </c>
+      <c r="O11">
+        <v>17.819</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <v>18.235</v>
+      </c>
+      <c r="R11">
+        <v>18.479</v>
+      </c>
+      <c r="S11">
+        <v>16.017</v>
+      </c>
+      <c r="T11">
+        <v>15.517</v>
+      </c>
+      <c r="U11">
+        <v>19.857</v>
+      </c>
+      <c r="V11">
+        <v>25.39</v>
+      </c>
+      <c r="W11">
+        <v>26.654</v>
+      </c>
+      <c r="X11">
+        <v>21.818</v>
+      </c>
+      <c r="Y11">
+        <v>30.139</v>
+      </c>
+      <c r="Z11">
+        <v>29.552</v>
+      </c>
+      <c r="AA11">
+        <v>38.764</v>
+      </c>
+      <c r="AB11">
+        <v>43.469</v>
+      </c>
+      <c r="AC11">
+        <v>52.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="B12" t="s">
-        <v>729</v>
-      </c>
-      <c r="C12">
-        <v>4.337</v>
+        <v>458</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1037</v>
       </c>
       <c r="D12">
-        <v>10.459</v>
+        <v>4.057</v>
       </c>
       <c r="E12">
-        <v>13.748</v>
+        <v>7.82</v>
       </c>
       <c r="F12">
-        <v>18.739</v>
+        <v>9.316000000000001</v>
       </c>
       <c r="G12">
-        <v>20.95</v>
+        <v>16.35</v>
       </c>
       <c r="H12">
-        <v>20.95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>18.858</v>
+      </c>
+      <c r="I12">
+        <v>17.216</v>
+      </c>
+      <c r="J12">
+        <v>17.216</v>
+      </c>
+      <c r="K12">
+        <v>15.136</v>
+      </c>
+      <c r="L12">
+        <v>15.861</v>
+      </c>
+      <c r="M12">
+        <v>16.105</v>
+      </c>
+      <c r="N12">
+        <v>18.348</v>
+      </c>
+      <c r="O12">
+        <v>22.692</v>
+      </c>
+      <c r="P12">
+        <v>28.705</v>
+      </c>
+      <c r="Q12">
+        <v>31.31</v>
+      </c>
+      <c r="R12">
+        <v>31.153</v>
+      </c>
+      <c r="S12">
+        <v>26.782</v>
+      </c>
+      <c r="T12">
+        <v>21.209</v>
+      </c>
+      <c r="U12">
+        <v>25.484</v>
+      </c>
+      <c r="V12">
+        <v>29.308</v>
+      </c>
+      <c r="W12">
+        <v>27.514</v>
+      </c>
+      <c r="X12">
+        <v>26.201</v>
+      </c>
+      <c r="Y12">
+        <v>33.213</v>
+      </c>
+      <c r="Z12">
+        <v>37.36</v>
+      </c>
+      <c r="AA12">
+        <v>37.36</v>
+      </c>
+      <c r="AB12">
+        <v>45.899</v>
+      </c>
+      <c r="AC12">
+        <v>50.477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>405</v>
-      </c>
-      <c r="B13" t="s">
-        <v>984</v>
-      </c>
-      <c r="C13">
-        <v>6.575</v>
-      </c>
-      <c r="D13">
-        <v>9.002000000000001</v>
-      </c>
-      <c r="E13">
-        <v>10.016</v>
-      </c>
-      <c r="F13">
-        <v>20.757</v>
-      </c>
-      <c r="G13">
-        <v>25.195</v>
-      </c>
-      <c r="H13">
-        <v>18.829</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>98</v>
-      </c>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="B14" t="s">
-        <v>679</v>
-      </c>
-      <c r="C14">
-        <v>4.902</v>
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>628</v>
       </c>
       <c r="D14">
-        <v>10.499</v>
+        <v>1.481</v>
       </c>
       <c r="E14">
-        <v>16.094</v>
+        <v>5.113</v>
       </c>
       <c r="F14">
-        <v>17.726</v>
+        <v>2.535</v>
       </c>
       <c r="G14">
-        <v>22.753</v>
+        <v>6.566</v>
       </c>
       <c r="H14">
-        <v>18.962</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>591</v>
-      </c>
+        <v>4.934</v>
+      </c>
+      <c r="I14">
+        <v>7.871</v>
+      </c>
+      <c r="J14">
+        <v>11.933</v>
+      </c>
+      <c r="K14">
+        <v>16.643</v>
+      </c>
+      <c r="L14">
+        <v>21.169</v>
+      </c>
+      <c r="M14">
+        <v>28.96</v>
+      </c>
+      <c r="N14">
+        <v>32.35</v>
+      </c>
+      <c r="O14">
+        <v>39.615</v>
+      </c>
+      <c r="P14">
+        <v>46.758</v>
+      </c>
+      <c r="Q14">
+        <v>52.85</v>
+      </c>
+      <c r="R14">
+        <v>50.795</v>
+      </c>
+      <c r="S14">
+        <v>47.46</v>
+      </c>
+      <c r="T14">
+        <v>47.99</v>
+      </c>
+      <c r="U14">
+        <v>49.787</v>
+      </c>
+      <c r="V14">
+        <v>50.244</v>
+      </c>
+      <c r="W14">
+        <v>46.323</v>
+      </c>
+      <c r="X14">
+        <v>45.546</v>
+      </c>
+      <c r="Y14">
+        <v>43.681</v>
+      </c>
+      <c r="Z14">
+        <v>52.85</v>
+      </c>
+      <c r="AA14">
+        <v>52.19</v>
+      </c>
+      <c r="AB14">
+        <v>48.973</v>
+      </c>
+      <c r="AC14">
+        <v>43.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="B15" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C15">
-        <v>5.418</v>
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>641</v>
       </c>
       <c r="D15">
-        <v>10.674</v>
+        <v>7.431</v>
       </c>
       <c r="E15">
-        <v>14.317</v>
+        <v>14.425</v>
       </c>
       <c r="F15">
-        <v>18.459</v>
+        <v>18.589</v>
       </c>
       <c r="G15">
-        <v>22.333</v>
+        <v>23.104</v>
       </c>
       <c r="H15">
-        <v>18.614</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>307</v>
-      </c>
+        <v>33.333</v>
+      </c>
+      <c r="I15">
+        <v>22.961</v>
+      </c>
+      <c r="J15">
+        <v>20.925</v>
+      </c>
+      <c r="K15">
+        <v>16.855</v>
+      </c>
+      <c r="L15">
+        <v>13.081</v>
+      </c>
+      <c r="M15">
+        <v>14.178</v>
+      </c>
+      <c r="N15">
+        <v>24.845</v>
+      </c>
+      <c r="O15">
+        <v>31.471</v>
+      </c>
+      <c r="P15">
+        <v>34.306</v>
+      </c>
+      <c r="Q15">
+        <v>39.941</v>
+      </c>
+      <c r="R15">
+        <v>36.689</v>
+      </c>
+      <c r="S15">
+        <v>28.715</v>
+      </c>
+      <c r="T15">
+        <v>22.499</v>
+      </c>
+      <c r="U15">
+        <v>34.221</v>
+      </c>
+      <c r="V15">
+        <v>47.442</v>
+      </c>
+      <c r="W15">
+        <v>52.101</v>
+      </c>
+      <c r="X15">
+        <v>47.134</v>
+      </c>
+      <c r="Y15">
+        <v>49.313</v>
+      </c>
+      <c r="Z15">
+        <v>66.575</v>
+      </c>
+      <c r="AA15">
+        <v>63.363</v>
+      </c>
+      <c r="AB15">
+        <v>78.961</v>
+      </c>
+      <c r="AC15">
+        <v>72.19499999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="B16" t="s">
-        <v>886</v>
-      </c>
-      <c r="C16">
-        <v>6.659</v>
+        <v>176</v>
+      </c>
+      <c r="C16" t="s">
+        <v>756</v>
       </c>
       <c r="D16">
-        <v>9.423</v>
+        <v>0.551</v>
       </c>
       <c r="E16">
-        <v>12.88</v>
+        <v>4.899</v>
       </c>
       <c r="F16">
-        <v>19.103</v>
+        <v>6.053</v>
       </c>
       <c r="G16">
-        <v>23.21</v>
+        <v>10.372</v>
       </c>
       <c r="H16">
-        <v>18.193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>258</v>
-      </c>
+        <v>7.666</v>
+      </c>
+      <c r="I16">
+        <v>10.057</v>
+      </c>
+      <c r="J16">
+        <v>9.813000000000001</v>
+      </c>
+      <c r="K16">
+        <v>14.944</v>
+      </c>
+      <c r="L16">
+        <v>14.526</v>
+      </c>
+      <c r="M16">
+        <v>17.196</v>
+      </c>
+      <c r="N16">
+        <v>21.336</v>
+      </c>
+      <c r="O16">
+        <v>26.008</v>
+      </c>
+      <c r="P16">
+        <v>32.455</v>
+      </c>
+      <c r="Q16">
+        <v>38.649</v>
+      </c>
+      <c r="R16">
+        <v>32.152</v>
+      </c>
+      <c r="S16">
+        <v>29.247</v>
+      </c>
+      <c r="T16">
+        <v>31.851</v>
+      </c>
+      <c r="U16">
+        <v>36.093</v>
+      </c>
+      <c r="V16">
+        <v>41.534</v>
+      </c>
+      <c r="W16">
+        <v>38.927</v>
+      </c>
+      <c r="X16">
+        <v>37.987</v>
+      </c>
+      <c r="Y16">
+        <v>37.713</v>
+      </c>
+      <c r="Z16">
+        <v>47.241</v>
+      </c>
+      <c r="AA16">
+        <v>48.248</v>
+      </c>
+      <c r="AB16">
+        <v>51.221</v>
+      </c>
+      <c r="AC16">
+        <v>50.499</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
       <c r="B17" t="s">
-        <v>838</v>
-      </c>
-      <c r="C17">
-        <v>12.362</v>
+        <v>183</v>
+      </c>
+      <c r="C17" t="s">
+        <v>763</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>6.214</v>
       </c>
       <c r="E17">
-        <v>16.276</v>
+        <v>11.932</v>
       </c>
       <c r="F17">
-        <v>24.243</v>
+        <v>16.127</v>
       </c>
       <c r="G17">
-        <v>31.324</v>
+        <v>20.952</v>
       </c>
       <c r="H17">
-        <v>24.764</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>592</v>
-      </c>
+        <v>29.531</v>
+      </c>
+      <c r="I17">
+        <v>22.494</v>
+      </c>
+      <c r="J17">
+        <v>22.776</v>
+      </c>
+      <c r="K17">
+        <v>17.089</v>
+      </c>
+      <c r="L17">
+        <v>14.004</v>
+      </c>
+      <c r="M17">
+        <v>13.654</v>
+      </c>
+      <c r="N17">
+        <v>19.776</v>
+      </c>
+      <c r="O17">
+        <v>21.38</v>
+      </c>
+      <c r="P17">
+        <v>25.47</v>
+      </c>
+      <c r="Q17">
+        <v>28.114</v>
+      </c>
+      <c r="R17">
+        <v>25.601</v>
+      </c>
+      <c r="S17">
+        <v>18.769</v>
+      </c>
+      <c r="T17">
+        <v>15.18</v>
+      </c>
+      <c r="U17">
+        <v>23.502</v>
+      </c>
+      <c r="V17">
+        <v>29.148</v>
+      </c>
+      <c r="W17">
+        <v>30.516</v>
+      </c>
+      <c r="X17">
+        <v>27.739</v>
+      </c>
+      <c r="Y17">
+        <v>30.943</v>
+      </c>
+      <c r="Z17">
+        <v>43.33</v>
+      </c>
+      <c r="AA17">
+        <v>40.892</v>
+      </c>
+      <c r="AB17">
+        <v>46.926</v>
+      </c>
+      <c r="AC17">
+        <v>42.565</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
       <c r="B18" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C18">
-        <v>8.340999999999999</v>
+        <v>312</v>
+      </c>
+      <c r="C18" t="s">
+        <v>891</v>
       </c>
       <c r="D18">
-        <v>11.711</v>
+        <v>1.885</v>
       </c>
       <c r="E18">
-        <v>15.534</v>
+        <v>7.201</v>
       </c>
       <c r="F18">
-        <v>19.199</v>
+        <v>9.003</v>
       </c>
       <c r="G18">
-        <v>23.147</v>
+        <v>12.621</v>
       </c>
       <c r="H18">
-        <v>20.335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>555</v>
-      </c>
+        <v>14.656</v>
+      </c>
+      <c r="I18">
+        <v>14.297</v>
+      </c>
+      <c r="J18">
+        <v>15.382</v>
+      </c>
+      <c r="K18">
+        <v>17.756</v>
+      </c>
+      <c r="L18">
+        <v>18.714</v>
+      </c>
+      <c r="M18">
+        <v>20.579</v>
+      </c>
+      <c r="N18">
+        <v>25.83</v>
+      </c>
+      <c r="O18">
+        <v>29.689</v>
+      </c>
+      <c r="P18">
+        <v>34.656</v>
+      </c>
+      <c r="Q18">
+        <v>39.019</v>
+      </c>
+      <c r="R18">
+        <v>35.28</v>
+      </c>
+      <c r="S18">
+        <v>30.793</v>
+      </c>
+      <c r="T18">
+        <v>34.038</v>
+      </c>
+      <c r="U18">
+        <v>37.706</v>
+      </c>
+      <c r="V18">
+        <v>39.684</v>
+      </c>
+      <c r="W18">
+        <v>39.151</v>
+      </c>
+      <c r="X18">
+        <v>40.288</v>
+      </c>
+      <c r="Y18">
+        <v>41.239</v>
+      </c>
+      <c r="Z18">
+        <v>43.673</v>
+      </c>
+      <c r="AA18">
+        <v>45.609</v>
+      </c>
+      <c r="AB18">
+        <v>44.384</v>
+      </c>
+      <c r="AC18">
+        <v>43.32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
       <c r="B19" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C19">
-        <v>5.527</v>
+        <v>337</v>
+      </c>
+      <c r="C19" t="s">
+        <v>916</v>
       </c>
       <c r="D19">
-        <v>8.262</v>
+        <v>9.144</v>
       </c>
       <c r="E19">
-        <v>10.301</v>
+        <v>15.515</v>
       </c>
       <c r="F19">
-        <v>19.093</v>
+        <v>17.134</v>
       </c>
       <c r="G19">
-        <v>23.081</v>
+        <v>21.29</v>
       </c>
       <c r="H19">
-        <v>17.738</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" t="s">
-        <v>763</v>
-      </c>
-      <c r="C2">
-        <v>6.214</v>
-      </c>
-      <c r="D2">
-        <v>11.932</v>
-      </c>
-      <c r="E2">
-        <v>16.127</v>
-      </c>
-      <c r="F2">
-        <v>20.952</v>
-      </c>
-      <c r="G2">
-        <v>29.531</v>
-      </c>
-      <c r="H2">
-        <v>22.494</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B3" t="s">
-        <v>916</v>
-      </c>
-      <c r="C3">
-        <v>9.144</v>
-      </c>
-      <c r="D3">
-        <v>15.515</v>
-      </c>
-      <c r="E3">
-        <v>17.134</v>
-      </c>
-      <c r="F3">
-        <v>21.29</v>
-      </c>
-      <c r="G3">
         <v>31.469</v>
       </c>
-      <c r="H3">
+      <c r="I19">
         <v>23.481</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="J19">
+        <v>21.683</v>
+      </c>
+      <c r="K19">
+        <v>16.409</v>
+      </c>
+      <c r="L19">
+        <v>12.913</v>
+      </c>
+      <c r="M19">
+        <v>14.286</v>
+      </c>
+      <c r="N19">
+        <v>24.71</v>
+      </c>
+      <c r="O19">
+        <v>30.329</v>
+      </c>
+      <c r="P19">
+        <v>32.628</v>
+      </c>
+      <c r="Q19">
+        <v>36.976</v>
+      </c>
+      <c r="R19">
+        <v>34.286</v>
+      </c>
+      <c r="S19">
+        <v>27.242</v>
+      </c>
+      <c r="T19">
+        <v>22.876</v>
+      </c>
+      <c r="U19">
+        <v>31.01</v>
+      </c>
+      <c r="W19">
+        <v>43.511</v>
+      </c>
+      <c r="X19">
+        <v>43.786</v>
+      </c>
+      <c r="Y19">
+        <v>54.415</v>
+      </c>
+      <c r="Z19">
+        <v>69.752</v>
+      </c>
+      <c r="AA19">
+        <v>63.478</v>
+      </c>
+      <c r="AB19">
+        <v>70.90900000000001</v>
+      </c>
+      <c r="AC19">
+        <v>69.752</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="B20" t="s">
+        <v>360</v>
+      </c>
+      <c r="C20" t="s">
+        <v>939</v>
+      </c>
+      <c r="D20">
+        <v>1.321</v>
+      </c>
+      <c r="E20">
+        <v>5.651</v>
+      </c>
+      <c r="F20">
+        <v>7.909</v>
+      </c>
+      <c r="G20">
+        <v>13.747</v>
+      </c>
+      <c r="H20">
+        <v>13.419</v>
+      </c>
+      <c r="I20">
+        <v>12.791</v>
+      </c>
+      <c r="J20">
+        <v>13.376</v>
+      </c>
+      <c r="K20">
+        <v>17.129</v>
+      </c>
+      <c r="L20">
+        <v>17.409</v>
+      </c>
+      <c r="M20">
+        <v>20.843</v>
+      </c>
+      <c r="N20">
+        <v>27.658</v>
+      </c>
+      <c r="O20">
+        <v>31.347</v>
+      </c>
+      <c r="P20">
+        <v>34.917</v>
+      </c>
+      <c r="Q20">
+        <v>38.134</v>
+      </c>
+      <c r="R20">
+        <v>31.435</v>
+      </c>
+      <c r="S20">
+        <v>29.419</v>
+      </c>
+      <c r="T20">
+        <v>32.734</v>
+      </c>
+      <c r="U20">
+        <v>38.685</v>
+      </c>
+      <c r="W20">
+        <v>42.671</v>
+      </c>
+      <c r="X20">
+        <v>41.34</v>
+      </c>
+      <c r="Y20">
+        <v>44.804</v>
+      </c>
+      <c r="Z20">
+        <v>54.135</v>
+      </c>
+      <c r="AA20">
+        <v>55.474</v>
+      </c>
+      <c r="AB20">
+        <v>59.374</v>
+      </c>
+      <c r="AC20">
+        <v>59.46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="B21" t="s">
         <v>551</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C21" t="s">
         <v>1130</v>
       </c>
-      <c r="C4">
+      <c r="D21">
         <v>8.601000000000001</v>
       </c>
-      <c r="D4">
+      <c r="E21">
         <v>14.818</v>
       </c>
-      <c r="E4">
+      <c r="F21">
         <v>16.626</v>
       </c>
-      <c r="F4">
+      <c r="G21">
         <v>20.494</v>
       </c>
-      <c r="G4">
+      <c r="H21">
         <v>30.675</v>
       </c>
-      <c r="H4">
+      <c r="I21">
         <v>23.035</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>641</v>
-      </c>
-      <c r="C5">
-        <v>7.431</v>
-      </c>
-      <c r="D5">
-        <v>14.425</v>
-      </c>
-      <c r="E5">
-        <v>18.589</v>
-      </c>
-      <c r="F5">
-        <v>23.104</v>
-      </c>
-      <c r="G5">
-        <v>33.333</v>
-      </c>
-      <c r="H5">
-        <v>22.961</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C2">
-        <v>2.183</v>
-      </c>
-      <c r="D2">
-        <v>0.429</v>
-      </c>
-      <c r="E2">
-        <v>-1.543</v>
-      </c>
-      <c r="F2">
-        <v>10.9</v>
-      </c>
-      <c r="G2">
-        <v>13.592</v>
-      </c>
-      <c r="H2">
-        <v>4.776</v>
-      </c>
-      <c r="I2">
-        <v>4.776</v>
-      </c>
-      <c r="J2">
-        <v>10.726</v>
-      </c>
-      <c r="K2">
-        <v>16.418</v>
-      </c>
-      <c r="L2">
-        <v>21.453</v>
-      </c>
-      <c r="M2">
-        <v>26.259</v>
-      </c>
-      <c r="N2">
-        <v>26.715</v>
-      </c>
-      <c r="O2">
-        <v>24.911</v>
-      </c>
-      <c r="P2">
-        <v>21.244</v>
-      </c>
-      <c r="Q2">
-        <v>19.388</v>
-      </c>
-      <c r="R2">
-        <v>11.962</v>
-      </c>
-      <c r="S2">
-        <v>9.859</v>
-      </c>
-      <c r="T2">
-        <v>15.271</v>
-      </c>
-      <c r="U2">
-        <v>20.619</v>
-      </c>
-      <c r="V2">
-        <v>27.174</v>
-      </c>
-      <c r="W2">
-        <v>16.418</v>
-      </c>
-      <c r="X2">
-        <v>29.282</v>
-      </c>
-      <c r="Y2">
-        <v>29.044</v>
-      </c>
-      <c r="Z2">
-        <v>31.707</v>
-      </c>
-      <c r="AA2">
-        <v>33.969</v>
-      </c>
-      <c r="AB2">
-        <v>49.362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>628</v>
-      </c>
-      <c r="C3">
-        <v>1.481</v>
-      </c>
-      <c r="D3">
-        <v>5.113</v>
-      </c>
-      <c r="E3">
-        <v>2.535</v>
-      </c>
-      <c r="F3">
-        <v>6.566</v>
-      </c>
-      <c r="G3">
-        <v>4.934</v>
-      </c>
-      <c r="H3">
-        <v>7.871</v>
-      </c>
-      <c r="I3">
-        <v>11.933</v>
-      </c>
-      <c r="J3">
-        <v>16.643</v>
-      </c>
-      <c r="K3">
-        <v>21.169</v>
-      </c>
-      <c r="L3">
-        <v>28.96</v>
-      </c>
-      <c r="M3">
-        <v>32.35</v>
-      </c>
-      <c r="N3">
-        <v>39.615</v>
-      </c>
-      <c r="O3">
-        <v>46.758</v>
-      </c>
-      <c r="P3">
-        <v>52.85</v>
-      </c>
-      <c r="Q3">
-        <v>50.795</v>
-      </c>
-      <c r="R3">
-        <v>47.46</v>
-      </c>
-      <c r="S3">
-        <v>47.99</v>
-      </c>
-      <c r="T3">
-        <v>49.787</v>
-      </c>
-      <c r="U3">
-        <v>50.244</v>
-      </c>
-      <c r="V3">
-        <v>46.323</v>
-      </c>
-      <c r="W3">
-        <v>45.546</v>
-      </c>
-      <c r="X3">
-        <v>43.681</v>
-      </c>
-      <c r="Y3">
-        <v>52.85</v>
-      </c>
-      <c r="Z3">
-        <v>52.19</v>
-      </c>
-      <c r="AA3">
-        <v>48.973</v>
-      </c>
-      <c r="AB3">
-        <v>43.43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>641</v>
-      </c>
-      <c r="C4">
-        <v>7.431</v>
-      </c>
-      <c r="D4">
-        <v>14.425</v>
-      </c>
-      <c r="E4">
-        <v>18.589</v>
-      </c>
-      <c r="F4">
-        <v>23.104</v>
-      </c>
-      <c r="G4">
-        <v>33.333</v>
-      </c>
-      <c r="H4">
-        <v>22.961</v>
-      </c>
-      <c r="I4">
-        <v>20.925</v>
-      </c>
-      <c r="J4">
-        <v>16.855</v>
-      </c>
-      <c r="K4">
-        <v>13.081</v>
-      </c>
-      <c r="L4">
-        <v>14.178</v>
-      </c>
-      <c r="M4">
-        <v>24.845</v>
-      </c>
-      <c r="N4">
-        <v>31.471</v>
-      </c>
-      <c r="O4">
-        <v>34.306</v>
-      </c>
-      <c r="P4">
-        <v>39.941</v>
-      </c>
-      <c r="Q4">
-        <v>36.689</v>
-      </c>
-      <c r="R4">
-        <v>28.715</v>
-      </c>
-      <c r="S4">
-        <v>22.499</v>
-      </c>
-      <c r="T4">
-        <v>34.221</v>
-      </c>
-      <c r="U4">
-        <v>47.442</v>
-      </c>
-      <c r="V4">
-        <v>52.101</v>
-      </c>
-      <c r="W4">
-        <v>47.134</v>
-      </c>
-      <c r="X4">
-        <v>49.313</v>
-      </c>
-      <c r="Y4">
-        <v>66.575</v>
-      </c>
-      <c r="Z4">
-        <v>63.363</v>
-      </c>
-      <c r="AA4">
-        <v>78.961</v>
-      </c>
-      <c r="AB4">
-        <v>72.19499999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>655</v>
-      </c>
-      <c r="C5">
-        <v>6.157</v>
-      </c>
-      <c r="D5">
-        <v>8.132999999999999</v>
-      </c>
-      <c r="E5">
-        <v>8.773</v>
-      </c>
-      <c r="F5">
-        <v>16.526</v>
-      </c>
-      <c r="G5">
-        <v>18.592</v>
-      </c>
-      <c r="H5">
-        <v>15.008</v>
-      </c>
-      <c r="I5">
-        <v>16.649</v>
-      </c>
-      <c r="J5">
-        <v>16.097</v>
-      </c>
-      <c r="K5">
-        <v>16.158</v>
-      </c>
-      <c r="L5">
-        <v>17.082</v>
-      </c>
-      <c r="M5">
-        <v>20.733</v>
-      </c>
-      <c r="N5">
-        <v>20.865</v>
-      </c>
-      <c r="O5">
-        <v>24.619</v>
-      </c>
-      <c r="P5">
-        <v>29.215</v>
-      </c>
-      <c r="Q5">
-        <v>27.499</v>
-      </c>
-      <c r="R5">
-        <v>19.946</v>
-      </c>
-      <c r="S5">
-        <v>15.128</v>
-      </c>
-      <c r="T5">
-        <v>19.362</v>
-      </c>
-      <c r="U5">
-        <v>23.572</v>
-      </c>
-      <c r="V5">
-        <v>22.271</v>
-      </c>
-      <c r="W5">
-        <v>18.912</v>
-      </c>
-      <c r="X5">
-        <v>27.572</v>
-      </c>
-      <c r="Y5">
-        <v>34.902</v>
-      </c>
-      <c r="Z5">
-        <v>41.474</v>
-      </c>
-      <c r="AA5">
-        <v>48.92</v>
-      </c>
-      <c r="AB5">
-        <v>55.972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" t="s">
-        <v>672</v>
-      </c>
-      <c r="C6">
-        <v>5.017</v>
-      </c>
-      <c r="D6">
-        <v>11.415</v>
-      </c>
-      <c r="E6">
-        <v>17.939</v>
-      </c>
-      <c r="F6">
-        <v>24.103</v>
-      </c>
-      <c r="G6">
-        <v>25.771</v>
-      </c>
-      <c r="H6">
-        <v>26.874</v>
-      </c>
-      <c r="I6">
-        <v>22.385</v>
-      </c>
-      <c r="J6">
-        <v>15.206</v>
-      </c>
-      <c r="K6">
-        <v>12.597</v>
-      </c>
-      <c r="L6">
-        <v>14.874</v>
-      </c>
-      <c r="M6">
-        <v>18.378</v>
-      </c>
-      <c r="N6">
-        <v>28.306</v>
-      </c>
-      <c r="O6">
-        <v>84.14400000000001</v>
-      </c>
-      <c r="P6">
-        <v>82.245</v>
-      </c>
-      <c r="Q6">
-        <v>74.452</v>
-      </c>
-      <c r="R6">
-        <v>61.032</v>
-      </c>
-      <c r="S6">
-        <v>50.949</v>
-      </c>
-      <c r="T6">
-        <v>57.681</v>
-      </c>
-      <c r="U6">
-        <v>60.06</v>
-      </c>
-      <c r="V6">
-        <v>60.545</v>
-      </c>
-      <c r="W6">
-        <v>52.981</v>
-      </c>
-      <c r="X6">
-        <v>56.749</v>
-      </c>
-      <c r="Y6">
-        <v>66.771</v>
-      </c>
-      <c r="Z6">
-        <v>60.87</v>
-      </c>
-      <c r="AA6">
-        <v>72.935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>682</v>
-      </c>
-      <c r="C7">
-        <v>4.815</v>
-      </c>
-      <c r="D7">
-        <v>7.524</v>
-      </c>
-      <c r="E7">
-        <v>10.247</v>
-      </c>
-      <c r="F7">
-        <v>14.565</v>
-      </c>
-      <c r="G7">
-        <v>17.073</v>
-      </c>
-      <c r="H7">
-        <v>15.342</v>
-      </c>
-      <c r="I7">
-        <v>17</v>
-      </c>
-      <c r="J7">
-        <v>15.413</v>
-      </c>
-      <c r="K7">
-        <v>15.058</v>
-      </c>
-      <c r="L7">
-        <v>15.985</v>
-      </c>
-      <c r="M7">
-        <v>19.008</v>
-      </c>
-      <c r="N7">
-        <v>17.662</v>
-      </c>
-      <c r="O7">
-        <v>22.193</v>
-      </c>
-      <c r="P7">
-        <v>24.468</v>
-      </c>
-      <c r="Q7">
-        <v>19.923</v>
-      </c>
-      <c r="R7">
-        <v>13.869</v>
-      </c>
-      <c r="S7">
-        <v>8.459</v>
-      </c>
-      <c r="T7">
-        <v>13.317</v>
-      </c>
-      <c r="V7">
-        <v>13.661</v>
-      </c>
-      <c r="W7">
-        <v>9.666</v>
-      </c>
-      <c r="X7">
-        <v>18.182</v>
-      </c>
-      <c r="Y7">
-        <v>28.131</v>
-      </c>
-      <c r="Z7">
-        <v>33.524</v>
-      </c>
-      <c r="AA7">
-        <v>45.004</v>
-      </c>
-      <c r="AB7">
-        <v>45.116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" t="s">
-        <v>721</v>
-      </c>
-      <c r="C8">
-        <v>5.736</v>
-      </c>
-      <c r="D8">
-        <v>6.651</v>
-      </c>
-      <c r="E8">
-        <v>7.811</v>
-      </c>
-      <c r="F8">
-        <v>14.969</v>
-      </c>
-      <c r="G8">
-        <v>16.935</v>
-      </c>
-      <c r="H8">
-        <v>13.172</v>
-      </c>
-      <c r="I8">
-        <v>14.045</v>
-      </c>
-      <c r="J8">
-        <v>13.709</v>
-      </c>
-      <c r="K8">
-        <v>15.842</v>
-      </c>
-      <c r="L8">
-        <v>17.33</v>
-      </c>
-      <c r="M8">
-        <v>19.994</v>
-      </c>
-      <c r="N8">
-        <v>19.553</v>
-      </c>
-      <c r="O8">
-        <v>22.02</v>
-      </c>
-      <c r="P8">
-        <v>23.153</v>
-      </c>
-      <c r="Q8">
-        <v>19.747</v>
-      </c>
-      <c r="R8">
-        <v>13.513</v>
-      </c>
-      <c r="S8">
-        <v>10.363</v>
-      </c>
-      <c r="T8">
-        <v>14.676</v>
-      </c>
-      <c r="V8">
-        <v>17.763</v>
-      </c>
-      <c r="W8">
-        <v>16.282</v>
-      </c>
-      <c r="X8">
-        <v>24.956</v>
-      </c>
-      <c r="Y8">
-        <v>31.524</v>
-      </c>
-      <c r="Z8">
-        <v>30.373</v>
-      </c>
-      <c r="AA8">
-        <v>37.394</v>
-      </c>
-      <c r="AB8">
-        <v>46.005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" t="s">
-        <v>722</v>
-      </c>
-      <c r="C9">
-        <v>4.724</v>
-      </c>
-      <c r="D9">
-        <v>6.4</v>
-      </c>
-      <c r="E9">
-        <v>7.692</v>
-      </c>
-      <c r="F9">
-        <v>15.152</v>
-      </c>
-      <c r="G9">
-        <v>15.152</v>
-      </c>
-      <c r="H9">
-        <v>11.765</v>
-      </c>
-      <c r="I9">
-        <v>12.712</v>
-      </c>
-      <c r="J9">
-        <v>12.712</v>
-      </c>
-      <c r="K9">
-        <v>14.655</v>
-      </c>
-      <c r="L9">
-        <v>15.152</v>
-      </c>
-      <c r="M9">
-        <v>17.699</v>
-      </c>
-      <c r="N9">
-        <v>16.667</v>
-      </c>
-      <c r="O9">
-        <v>20.909</v>
-      </c>
-      <c r="P9">
-        <v>22.018</v>
-      </c>
-      <c r="Q9">
-        <v>18.222</v>
-      </c>
-      <c r="R9">
-        <v>12.236</v>
-      </c>
-      <c r="S9">
-        <v>9.465</v>
-      </c>
-      <c r="T9">
-        <v>13.675</v>
-      </c>
-      <c r="V9">
-        <v>17.699</v>
-      </c>
-      <c r="W9">
-        <v>16.157</v>
-      </c>
-      <c r="X9">
-        <v>23.148</v>
-      </c>
-      <c r="Y9">
-        <v>29.756</v>
-      </c>
-      <c r="Z9">
-        <v>28.502</v>
-      </c>
-      <c r="AA9">
-        <v>35.025</v>
-      </c>
-      <c r="AB9">
-        <v>42.246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" t="s">
-        <v>726</v>
-      </c>
-      <c r="C10">
-        <v>0.735</v>
-      </c>
-      <c r="D10">
-        <v>1.318</v>
-      </c>
-      <c r="E10">
-        <v>2.609</v>
-      </c>
-      <c r="F10">
-        <v>8.397</v>
-      </c>
-      <c r="G10">
-        <v>23.101</v>
-      </c>
-      <c r="H10">
-        <v>19.986</v>
-      </c>
-      <c r="I10">
-        <v>12.483</v>
-      </c>
-      <c r="J10">
-        <v>13.287</v>
-      </c>
-      <c r="K10">
-        <v>12.011</v>
-      </c>
-      <c r="L10">
-        <v>10.788</v>
-      </c>
-      <c r="M10">
-        <v>14.904</v>
-      </c>
-      <c r="N10">
-        <v>2.63</v>
-      </c>
-      <c r="O10">
-        <v>17.105</v>
-      </c>
-      <c r="P10">
-        <v>23.521</v>
-      </c>
-      <c r="Q10">
-        <v>24.644</v>
-      </c>
-      <c r="R10">
-        <v>14.411</v>
-      </c>
-      <c r="S10">
-        <v>6.397</v>
-      </c>
-      <c r="T10">
-        <v>18.169</v>
-      </c>
-      <c r="U10">
-        <v>19.14</v>
-      </c>
-      <c r="V10">
-        <v>16.648</v>
-      </c>
-      <c r="W10">
-        <v>26.446</v>
-      </c>
-      <c r="X10">
-        <v>27.398</v>
-      </c>
-      <c r="Y10">
-        <v>30.445</v>
-      </c>
-      <c r="Z10">
-        <v>44.777</v>
-      </c>
-      <c r="AA10">
-        <v>47.944</v>
-      </c>
-      <c r="AB10">
-        <v>38.229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" t="s">
-        <v>756</v>
-      </c>
-      <c r="C11">
-        <v>0.551</v>
-      </c>
-      <c r="D11">
-        <v>4.899</v>
-      </c>
-      <c r="E11">
-        <v>6.053</v>
-      </c>
-      <c r="F11">
-        <v>10.372</v>
-      </c>
-      <c r="G11">
-        <v>7.666</v>
-      </c>
-      <c r="H11">
-        <v>10.057</v>
-      </c>
-      <c r="I11">
-        <v>9.813000000000001</v>
-      </c>
-      <c r="J11">
-        <v>14.944</v>
-      </c>
-      <c r="K11">
-        <v>14.526</v>
-      </c>
-      <c r="L11">
-        <v>17.196</v>
-      </c>
-      <c r="M11">
-        <v>21.336</v>
-      </c>
-      <c r="N11">
-        <v>26.008</v>
-      </c>
-      <c r="O11">
-        <v>32.455</v>
-      </c>
-      <c r="P11">
-        <v>38.649</v>
-      </c>
-      <c r="Q11">
-        <v>32.152</v>
-      </c>
-      <c r="R11">
-        <v>29.247</v>
-      </c>
-      <c r="S11">
-        <v>31.851</v>
-      </c>
-      <c r="T11">
-        <v>36.093</v>
-      </c>
-      <c r="U11">
-        <v>41.534</v>
-      </c>
-      <c r="V11">
-        <v>38.927</v>
-      </c>
-      <c r="W11">
-        <v>37.987</v>
-      </c>
-      <c r="X11">
-        <v>37.713</v>
-      </c>
-      <c r="Y11">
-        <v>47.241</v>
-      </c>
-      <c r="Z11">
-        <v>48.248</v>
-      </c>
-      <c r="AA11">
-        <v>51.221</v>
-      </c>
-      <c r="AB11">
-        <v>50.499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" t="s">
-        <v>763</v>
-      </c>
-      <c r="C12">
-        <v>6.214</v>
-      </c>
-      <c r="D12">
-        <v>11.932</v>
-      </c>
-      <c r="E12">
-        <v>16.127</v>
-      </c>
-      <c r="F12">
-        <v>20.952</v>
-      </c>
-      <c r="G12">
-        <v>29.531</v>
-      </c>
-      <c r="H12">
-        <v>22.494</v>
-      </c>
-      <c r="I12">
-        <v>22.776</v>
-      </c>
-      <c r="J12">
-        <v>17.089</v>
-      </c>
-      <c r="K12">
-        <v>14.004</v>
-      </c>
-      <c r="L12">
-        <v>13.654</v>
-      </c>
-      <c r="M12">
-        <v>19.776</v>
-      </c>
-      <c r="N12">
-        <v>21.38</v>
-      </c>
-      <c r="O12">
-        <v>25.47</v>
-      </c>
-      <c r="P12">
-        <v>28.114</v>
-      </c>
-      <c r="Q12">
-        <v>25.601</v>
-      </c>
-      <c r="R12">
-        <v>18.769</v>
-      </c>
-      <c r="S12">
-        <v>15.18</v>
-      </c>
-      <c r="T12">
-        <v>23.502</v>
-      </c>
-      <c r="U12">
-        <v>29.148</v>
-      </c>
-      <c r="V12">
-        <v>30.516</v>
-      </c>
-      <c r="W12">
-        <v>27.739</v>
-      </c>
-      <c r="X12">
-        <v>30.943</v>
-      </c>
-      <c r="Y12">
-        <v>43.33</v>
-      </c>
-      <c r="Z12">
-        <v>40.892</v>
-      </c>
-      <c r="AA12">
-        <v>46.926</v>
-      </c>
-      <c r="AB12">
-        <v>42.565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B13" t="s">
-        <v>798</v>
-      </c>
-      <c r="C13">
-        <v>6.629</v>
-      </c>
-      <c r="D13">
-        <v>9.724</v>
-      </c>
-      <c r="E13">
-        <v>12.948</v>
-      </c>
-      <c r="F13">
-        <v>19.937</v>
-      </c>
-      <c r="G13">
-        <v>24.684</v>
-      </c>
-      <c r="H13">
-        <v>19.557</v>
-      </c>
-      <c r="I13">
-        <v>18.993</v>
-      </c>
-      <c r="J13">
-        <v>17.452</v>
-      </c>
-      <c r="K13">
-        <v>17.696</v>
-      </c>
-      <c r="L13">
-        <v>19.873</v>
-      </c>
-      <c r="M13">
-        <v>24.002</v>
-      </c>
-      <c r="N13">
-        <v>21.739</v>
-      </c>
-      <c r="O13">
-        <v>25.235</v>
-      </c>
-      <c r="P13">
-        <v>26.704</v>
-      </c>
-      <c r="Q13">
-        <v>24.684</v>
-      </c>
-      <c r="R13">
-        <v>19.055</v>
-      </c>
-      <c r="S13">
-        <v>17.941</v>
-      </c>
-      <c r="T13">
-        <v>25.097</v>
-      </c>
-      <c r="U13">
-        <v>30.947</v>
-      </c>
-      <c r="V13">
-        <v>26.281</v>
-      </c>
-      <c r="W13">
-        <v>22.927</v>
-      </c>
-      <c r="X13">
-        <v>30.495</v>
-      </c>
-      <c r="Y13">
-        <v>33.648</v>
-      </c>
-      <c r="Z13">
-        <v>31.023</v>
-      </c>
-      <c r="AA13">
-        <v>38.716</v>
-      </c>
-      <c r="AB13">
-        <v>47.56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" t="s">
-        <v>251</v>
-      </c>
-      <c r="B14" t="s">
-        <v>831</v>
-      </c>
-      <c r="C14">
-        <v>4.061</v>
-      </c>
-      <c r="D14">
-        <v>5.902</v>
-      </c>
-      <c r="E14">
-        <v>6.18</v>
-      </c>
-      <c r="F14">
-        <v>14.367</v>
-      </c>
-      <c r="G14">
-        <v>16.347</v>
-      </c>
-      <c r="H14">
-        <v>10.663</v>
-      </c>
-      <c r="I14">
-        <v>10.88</v>
-      </c>
-      <c r="J14">
-        <v>11.084</v>
-      </c>
-      <c r="K14">
-        <v>11.853</v>
-      </c>
-      <c r="L14">
-        <v>13.592</v>
-      </c>
-      <c r="M14">
-        <v>16.404</v>
-      </c>
-      <c r="N14">
-        <v>16.687</v>
-      </c>
-      <c r="O14">
-        <v>18.723</v>
-      </c>
-      <c r="P14">
-        <v>17.666</v>
-      </c>
-      <c r="Q14">
-        <v>18.101</v>
-      </c>
-      <c r="R14">
-        <v>16.463</v>
-      </c>
-      <c r="S14">
-        <v>14.387</v>
-      </c>
-      <c r="T14">
-        <v>18.089</v>
-      </c>
-      <c r="U14">
-        <v>22.145</v>
-      </c>
-      <c r="V14">
-        <v>26.007</v>
-      </c>
-      <c r="W14">
-        <v>22.499</v>
-      </c>
-      <c r="Y14">
-        <v>33.734</v>
-      </c>
-      <c r="Z14">
-        <v>29.751</v>
-      </c>
-      <c r="AA14">
-        <v>37.036</v>
-      </c>
-      <c r="AB14">
-        <v>45.466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B15" t="s">
-        <v>832</v>
-      </c>
-      <c r="C15">
-        <v>1.271</v>
-      </c>
-      <c r="D15">
-        <v>2.894</v>
-      </c>
-      <c r="E15">
-        <v>1.805</v>
-      </c>
-      <c r="F15">
-        <v>5.742</v>
-      </c>
-      <c r="G15">
-        <v>5.562</v>
-      </c>
-      <c r="H15">
-        <v>7.03</v>
-      </c>
-      <c r="I15">
-        <v>7.717</v>
-      </c>
-      <c r="J15">
-        <v>7.875</v>
-      </c>
-      <c r="K15">
-        <v>10.824</v>
-      </c>
-      <c r="L15">
-        <v>13.032</v>
-      </c>
-      <c r="M15">
-        <v>15.428</v>
-      </c>
-      <c r="N15">
-        <v>19.782</v>
-      </c>
-      <c r="O15">
-        <v>22.118</v>
-      </c>
-      <c r="P15">
-        <v>22.571</v>
-      </c>
-      <c r="Q15">
-        <v>22.089</v>
-      </c>
-      <c r="R15">
-        <v>20.821</v>
-      </c>
-      <c r="S15">
-        <v>18.185</v>
-      </c>
-      <c r="T15">
-        <v>23.712</v>
-      </c>
-      <c r="U15">
-        <v>25.34</v>
-      </c>
-      <c r="V15">
-        <v>31.379</v>
-      </c>
-      <c r="W15">
-        <v>24.177</v>
-      </c>
-      <c r="X15">
-        <v>27.621</v>
-      </c>
-      <c r="Y15">
-        <v>33.086</v>
-      </c>
-      <c r="Z15">
-        <v>32.048</v>
-      </c>
-      <c r="AA15">
-        <v>34.591</v>
-      </c>
-      <c r="AB15">
-        <v>35.437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" t="s">
-        <v>258</v>
-      </c>
-      <c r="B16" t="s">
-        <v>838</v>
-      </c>
-      <c r="C16">
-        <v>12.362</v>
-      </c>
-      <c r="D16">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>16.276</v>
-      </c>
-      <c r="F16">
-        <v>24.243</v>
-      </c>
-      <c r="G16">
-        <v>31.324</v>
-      </c>
-      <c r="H16">
-        <v>24.764</v>
-      </c>
-      <c r="I16">
-        <v>23.985</v>
-      </c>
-      <c r="J16">
-        <v>19.785</v>
-      </c>
-      <c r="K16">
-        <v>16.466</v>
-      </c>
-      <c r="L16">
-        <v>17.038</v>
-      </c>
-      <c r="M16">
-        <v>29.702</v>
-      </c>
-      <c r="N16">
-        <v>27.663</v>
-      </c>
-      <c r="O16">
-        <v>31.565</v>
-      </c>
-      <c r="P16">
-        <v>33.035</v>
-      </c>
-      <c r="Q16">
-        <v>27.163</v>
-      </c>
-      <c r="R16">
-        <v>23.77</v>
-      </c>
-      <c r="S16">
-        <v>26.937</v>
-      </c>
-      <c r="T16">
-        <v>28.397</v>
-      </c>
-      <c r="U16">
-        <v>35.921</v>
-      </c>
-      <c r="V16">
-        <v>37.49</v>
-      </c>
-      <c r="W16">
-        <v>30.938</v>
-      </c>
-      <c r="X16">
-        <v>37.809</v>
-      </c>
-      <c r="Y16">
-        <v>48.462</v>
-      </c>
-      <c r="Z16">
-        <v>49.958</v>
-      </c>
-      <c r="AA16">
-        <v>54.632</v>
-      </c>
-      <c r="AB16">
-        <v>57.218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" t="s">
-        <v>260</v>
-      </c>
-      <c r="B17" t="s">
-        <v>840</v>
-      </c>
-      <c r="C17">
-        <v>5.089</v>
-      </c>
-      <c r="D17">
-        <v>7.63</v>
-      </c>
-      <c r="E17">
-        <v>12.087</v>
-      </c>
-      <c r="F17">
-        <v>15.314</v>
-      </c>
-      <c r="G17">
-        <v>19.014</v>
-      </c>
-      <c r="H17">
-        <v>15.713</v>
-      </c>
-      <c r="I17">
-        <v>14.131</v>
-      </c>
-      <c r="J17">
-        <v>9.394</v>
-      </c>
-      <c r="K17">
-        <v>7.17</v>
-      </c>
-      <c r="L17">
-        <v>11.464</v>
-      </c>
-      <c r="M17">
-        <v>13.484</v>
-      </c>
-      <c r="N17">
-        <v>13.42</v>
-      </c>
-      <c r="O17">
-        <v>16.386</v>
-      </c>
-      <c r="P17">
-        <v>15.78</v>
-      </c>
-      <c r="Q17">
-        <v>14.851</v>
-      </c>
-      <c r="R17">
-        <v>13.678</v>
-      </c>
-      <c r="S17">
-        <v>13.484</v>
-      </c>
-      <c r="T17">
-        <v>16.453</v>
-      </c>
-      <c r="U17">
-        <v>22.06</v>
-      </c>
-      <c r="V17">
-        <v>23.186</v>
-      </c>
-      <c r="W17">
-        <v>23.337</v>
-      </c>
-      <c r="X17">
-        <v>24.565</v>
-      </c>
-      <c r="Y17">
-        <v>28.233</v>
-      </c>
-      <c r="Z17">
-        <v>37.948</v>
-      </c>
-      <c r="AA17">
-        <v>40.858</v>
-      </c>
-      <c r="AB17">
-        <v>49.366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B18" t="s">
-        <v>879</v>
-      </c>
-      <c r="C18">
-        <v>6.675</v>
-      </c>
-      <c r="D18">
-        <v>8.827</v>
-      </c>
-      <c r="E18">
-        <v>12.224</v>
-      </c>
-      <c r="F18">
-        <v>20.363</v>
-      </c>
-      <c r="G18">
-        <v>22.76</v>
-      </c>
-      <c r="H18">
-        <v>17.896</v>
-      </c>
-      <c r="I18">
-        <v>19.529</v>
-      </c>
-      <c r="J18">
-        <v>18.544</v>
-      </c>
-      <c r="K18">
-        <v>19.034</v>
-      </c>
-      <c r="L18">
-        <v>20.868</v>
-      </c>
-      <c r="M18">
-        <v>24.173</v>
-      </c>
-      <c r="N18">
-        <v>23.462</v>
-      </c>
-      <c r="O18">
-        <v>25.985</v>
-      </c>
-      <c r="P18">
-        <v>25.985</v>
-      </c>
-      <c r="Q18">
-        <v>23.639</v>
-      </c>
-      <c r="R18">
-        <v>17.096</v>
-      </c>
-      <c r="S18">
-        <v>12.958</v>
-      </c>
-      <c r="T18">
-        <v>16.779</v>
-      </c>
-      <c r="U18">
-        <v>19.034</v>
-      </c>
-      <c r="V18">
-        <v>20.028</v>
-      </c>
-      <c r="W18">
-        <v>18.381</v>
-      </c>
-      <c r="X18">
-        <v>23.639</v>
-      </c>
-      <c r="Y18">
-        <v>30.363</v>
-      </c>
-      <c r="Z18">
-        <v>32.362</v>
-      </c>
-      <c r="AA18">
-        <v>39.644</v>
-      </c>
-      <c r="AB18">
-        <v>46.52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" t="s">
-        <v>312</v>
-      </c>
-      <c r="B19" t="s">
-        <v>891</v>
-      </c>
-      <c r="C19">
-        <v>1.885</v>
-      </c>
-      <c r="D19">
-        <v>7.201</v>
-      </c>
-      <c r="E19">
-        <v>9.003</v>
-      </c>
-      <c r="F19">
-        <v>12.621</v>
-      </c>
-      <c r="G19">
-        <v>14.656</v>
-      </c>
-      <c r="H19">
-        <v>14.297</v>
-      </c>
-      <c r="I19">
-        <v>15.382</v>
-      </c>
-      <c r="J19">
-        <v>17.756</v>
-      </c>
-      <c r="K19">
-        <v>18.714</v>
-      </c>
-      <c r="L19">
-        <v>20.579</v>
-      </c>
-      <c r="M19">
-        <v>25.83</v>
-      </c>
-      <c r="N19">
-        <v>29.689</v>
-      </c>
-      <c r="O19">
-        <v>34.656</v>
-      </c>
-      <c r="P19">
-        <v>39.019</v>
-      </c>
-      <c r="Q19">
-        <v>35.28</v>
-      </c>
-      <c r="R19">
-        <v>30.793</v>
-      </c>
-      <c r="S19">
-        <v>34.038</v>
-      </c>
-      <c r="T19">
-        <v>37.706</v>
-      </c>
-      <c r="U19">
-        <v>39.684</v>
-      </c>
-      <c r="V19">
-        <v>39.151</v>
-      </c>
-      <c r="W19">
-        <v>40.288</v>
-      </c>
-      <c r="X19">
-        <v>41.239</v>
-      </c>
-      <c r="Y19">
-        <v>43.673</v>
-      </c>
-      <c r="Z19">
-        <v>45.609</v>
-      </c>
-      <c r="AA19">
-        <v>44.384</v>
-      </c>
-      <c r="AB19">
-        <v>43.32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
-      <c r="A20" t="s">
-        <v>314</v>
-      </c>
-      <c r="B20" t="s">
-        <v>893</v>
-      </c>
-      <c r="C20">
-        <v>1.538</v>
-      </c>
-      <c r="D20">
-        <v>4.762</v>
-      </c>
-      <c r="E20">
-        <v>4.762</v>
-      </c>
-      <c r="F20">
-        <v>5.6</v>
-      </c>
-      <c r="G20">
-        <v>6.452</v>
-      </c>
-      <c r="H20">
-        <v>6.452</v>
-      </c>
-      <c r="I20">
-        <v>5.6</v>
-      </c>
-      <c r="J20">
-        <v>3.125</v>
-      </c>
-      <c r="K20">
-        <v>4.762</v>
-      </c>
-      <c r="L20">
-        <v>7.027</v>
-      </c>
-      <c r="M20">
-        <v>10</v>
-      </c>
-      <c r="N20">
-        <v>11.864</v>
-      </c>
-      <c r="O20">
-        <v>14.783</v>
-      </c>
-      <c r="P20">
-        <v>15.116</v>
-      </c>
-      <c r="Q20">
-        <v>14.451</v>
-      </c>
-      <c r="R20">
-        <v>12.821</v>
-      </c>
-      <c r="S20">
-        <v>11.864</v>
-      </c>
-      <c r="T20">
-        <v>16.814</v>
-      </c>
-      <c r="V20">
-        <v>25.316</v>
-      </c>
-      <c r="W20">
-        <v>22.222</v>
-      </c>
-      <c r="X20">
-        <v>30.693</v>
-      </c>
-      <c r="Y20">
-        <v>33.333</v>
-      </c>
-      <c r="Z20">
-        <v>32.886</v>
-      </c>
-      <c r="AA20">
-        <v>34.694</v>
-      </c>
-      <c r="AB20">
-        <v>34.237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
-      <c r="A21" t="s">
-        <v>330</v>
-      </c>
-      <c r="B21" t="s">
-        <v>909</v>
-      </c>
-      <c r="C21">
-        <v>5.335</v>
-      </c>
-      <c r="D21">
-        <v>7.562</v>
-      </c>
-      <c r="E21">
-        <v>11.15</v>
-      </c>
-      <c r="F21">
-        <v>16.425</v>
-      </c>
-      <c r="G21">
-        <v>18.218</v>
-      </c>
-      <c r="H21">
-        <v>13.505</v>
-      </c>
-      <c r="I21">
-        <v>13.393</v>
-      </c>
       <c r="J21">
-        <v>13.154</v>
+        <v>21.521</v>
       </c>
       <c r="K21">
-        <v>14.739</v>
+        <v>15.68</v>
       </c>
       <c r="L21">
-        <v>15.124</v>
+        <v>12.833</v>
       </c>
       <c r="M21">
-        <v>16.702</v>
+        <v>11.397</v>
       </c>
       <c r="N21">
-        <v>15.1</v>
+        <v>15.472</v>
       </c>
       <c r="O21">
-        <v>20.034</v>
+        <v>20.494</v>
       </c>
       <c r="P21">
-        <v>20.903</v>
+        <v>22.332</v>
       </c>
       <c r="Q21">
-        <v>19.891</v>
+        <v>26.636</v>
       </c>
       <c r="R21">
-        <v>15.232</v>
+        <v>30.321</v>
       </c>
       <c r="S21">
-        <v>11.822</v>
+        <v>25.481</v>
       </c>
       <c r="T21">
-        <v>17.363</v>
+        <v>22.604</v>
+      </c>
+      <c r="U21">
+        <v>28.882</v>
       </c>
       <c r="V21">
-        <v>21.09</v>
+        <v>33.948</v>
       </c>
       <c r="W21">
-        <v>19.774</v>
+        <v>38.925</v>
       </c>
       <c r="X21">
-        <v>25.491</v>
+        <v>40.445</v>
       </c>
       <c r="Y21">
-        <v>31.357</v>
+        <v>50.96</v>
       </c>
       <c r="Z21">
-        <v>31.639</v>
+        <v>63.594</v>
       </c>
       <c r="AA21">
-        <v>41.823</v>
+        <v>59.992</v>
       </c>
       <c r="AB21">
-        <v>52.379</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="A22" t="s">
-        <v>336</v>
-      </c>
+        <v>65.066</v>
+      </c>
+      <c r="AC21">
+        <v>66.70999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29">
       <c r="B22" t="s">
-        <v>915</v>
-      </c>
-      <c r="C22">
-        <v>2.319</v>
+        <v>605</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1184</v>
       </c>
       <c r="D22">
-        <v>0.57</v>
+        <v>1.996</v>
       </c>
       <c r="E22">
-        <v>-0.843</v>
+        <v>8.493</v>
       </c>
       <c r="F22">
-        <v>11.709</v>
+        <v>10.885</v>
       </c>
       <c r="G22">
-        <v>14.239</v>
+        <v>14.8</v>
       </c>
       <c r="H22">
-        <v>5.373</v>
+        <v>15.708</v>
       </c>
       <c r="I22">
-        <v>5.373</v>
+        <v>16.042</v>
       </c>
       <c r="J22">
-        <v>11.356</v>
+        <v>16.63</v>
       </c>
       <c r="K22">
-        <v>16.887</v>
+        <v>18.695</v>
       </c>
       <c r="L22">
-        <v>22.569</v>
+        <v>16.757</v>
       </c>
       <c r="M22">
-        <v>27.437</v>
+        <v>18.128</v>
       </c>
       <c r="N22">
-        <v>27.899</v>
+        <v>20.381</v>
       </c>
       <c r="O22">
-        <v>26.523</v>
+        <v>26.782</v>
       </c>
       <c r="P22">
-        <v>22.569</v>
+        <v>32.306</v>
       </c>
       <c r="Q22">
-        <v>20.89</v>
+        <v>38.75</v>
       </c>
       <c r="R22">
-        <v>13.141</v>
+        <v>35.48</v>
       </c>
       <c r="S22">
-        <v>10.658</v>
+        <v>30.008</v>
       </c>
       <c r="T22">
-        <v>16.118</v>
+        <v>31.441</v>
+      </c>
+      <c r="U22">
+        <v>35.309</v>
       </c>
       <c r="V22">
-        <v>27.899</v>
+        <v>40.568</v>
       </c>
       <c r="W22">
-        <v>17.276</v>
+        <v>39.05</v>
       </c>
       <c r="X22">
-        <v>30.741</v>
+        <v>38.571</v>
       </c>
       <c r="Y22">
-        <v>30.741</v>
+        <v>39.774</v>
       </c>
       <c r="Z22">
-        <v>32.707</v>
+        <v>46.053</v>
       </c>
       <c r="AA22">
-        <v>34.733</v>
+        <v>47.121</v>
       </c>
       <c r="AB22">
-        <v>50.855</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
-      <c r="A23" t="s">
-        <v>337</v>
-      </c>
-      <c r="B23" t="s">
-        <v>916</v>
-      </c>
-      <c r="C23">
-        <v>9.144</v>
-      </c>
-      <c r="D23">
-        <v>15.515</v>
-      </c>
-      <c r="E23">
-        <v>17.134</v>
-      </c>
-      <c r="F23">
-        <v>21.29</v>
-      </c>
-      <c r="G23">
-        <v>31.469</v>
-      </c>
-      <c r="H23">
-        <v>23.481</v>
-      </c>
-      <c r="I23">
-        <v>21.683</v>
-      </c>
-      <c r="J23">
-        <v>16.409</v>
-      </c>
-      <c r="K23">
-        <v>12.913</v>
-      </c>
-      <c r="L23">
-        <v>14.286</v>
-      </c>
-      <c r="M23">
-        <v>24.71</v>
-      </c>
-      <c r="N23">
-        <v>30.329</v>
-      </c>
-      <c r="O23">
-        <v>32.628</v>
-      </c>
-      <c r="P23">
-        <v>36.976</v>
-      </c>
-      <c r="Q23">
-        <v>34.286</v>
-      </c>
-      <c r="R23">
-        <v>27.242</v>
-      </c>
-      <c r="S23">
-        <v>22.876</v>
-      </c>
-      <c r="T23">
-        <v>31.01</v>
-      </c>
-      <c r="V23">
-        <v>43.511</v>
-      </c>
-      <c r="W23">
-        <v>43.786</v>
-      </c>
-      <c r="X23">
-        <v>54.415</v>
-      </c>
-      <c r="Y23">
-        <v>69.752</v>
-      </c>
-      <c r="Z23">
-        <v>63.478</v>
-      </c>
-      <c r="AA23">
-        <v>70.90900000000001</v>
-      </c>
-      <c r="AB23">
-        <v>69.752</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
-      <c r="A24" t="s">
-        <v>349</v>
-      </c>
-      <c r="B24" t="s">
-        <v>928</v>
-      </c>
-      <c r="C24">
-        <v>4.847</v>
-      </c>
-      <c r="D24">
-        <v>6.791</v>
-      </c>
-      <c r="E24">
-        <v>8.839</v>
-      </c>
-      <c r="F24">
-        <v>15.649</v>
-      </c>
-      <c r="G24">
-        <v>18.619</v>
-      </c>
-      <c r="H24">
-        <v>15.615</v>
-      </c>
-      <c r="I24">
-        <v>16.913</v>
-      </c>
-      <c r="J24">
-        <v>16.711</v>
-      </c>
-      <c r="K24">
-        <v>18.386</v>
-      </c>
-      <c r="L24">
-        <v>18.818</v>
-      </c>
-      <c r="M24">
-        <v>22.658</v>
-      </c>
-      <c r="N24">
-        <v>21.34</v>
-      </c>
-      <c r="O24">
-        <v>24.341</v>
-      </c>
-      <c r="P24">
-        <v>23.927</v>
-      </c>
-      <c r="Q24">
-        <v>23.199</v>
-      </c>
-      <c r="R24">
-        <v>17.38</v>
-      </c>
-      <c r="S24">
-        <v>13.538</v>
-      </c>
-      <c r="T24">
-        <v>19.034</v>
-      </c>
-      <c r="V24">
-        <v>23.362</v>
-      </c>
-      <c r="W24">
-        <v>21.748</v>
-      </c>
-      <c r="X24">
-        <v>28.796</v>
-      </c>
-      <c r="Y24">
-        <v>34.477</v>
-      </c>
-      <c r="Z24">
-        <v>30.496</v>
-      </c>
-      <c r="AA24">
-        <v>37.724</v>
-      </c>
-      <c r="AB24">
-        <v>44.472</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="A25" t="s">
-        <v>352</v>
-      </c>
-      <c r="B25" t="s">
-        <v>931</v>
-      </c>
-      <c r="C25">
-        <v>5.065</v>
-      </c>
-      <c r="D25">
-        <v>6.972</v>
-      </c>
-      <c r="E25">
-        <v>8.99</v>
-      </c>
-      <c r="F25">
-        <v>15.728</v>
-      </c>
-      <c r="G25">
-        <v>18.887</v>
-      </c>
-      <c r="H25">
-        <v>16.344</v>
-      </c>
-      <c r="I25">
-        <v>18.048</v>
-      </c>
-      <c r="J25">
-        <v>17.564</v>
-      </c>
-      <c r="K25">
-        <v>18.428</v>
-      </c>
-      <c r="L25">
-        <v>19.397</v>
-      </c>
-      <c r="M25">
-        <v>23.455</v>
-      </c>
-      <c r="N25">
-        <v>21.803</v>
-      </c>
-      <c r="O25">
-        <v>24.949</v>
-      </c>
-      <c r="P25">
-        <v>23.921</v>
-      </c>
-      <c r="Q25">
-        <v>23.605</v>
-      </c>
-      <c r="R25">
-        <v>18.199</v>
-      </c>
-      <c r="S25">
-        <v>13.471</v>
-      </c>
-      <c r="T25">
-        <v>17.821</v>
-      </c>
-      <c r="V25">
-        <v>21.497</v>
-      </c>
-      <c r="W25">
-        <v>19.943</v>
-      </c>
-      <c r="X25">
-        <v>27.391</v>
-      </c>
-      <c r="Y25">
-        <v>33.208</v>
-      </c>
-      <c r="Z25">
-        <v>30.893</v>
-      </c>
-      <c r="AA25">
-        <v>38.216</v>
-      </c>
-      <c r="AB25">
-        <v>47.111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28">
-      <c r="A26" t="s">
-        <v>360</v>
-      </c>
-      <c r="B26" t="s">
-        <v>939</v>
-      </c>
-      <c r="C26">
-        <v>1.321</v>
-      </c>
-      <c r="D26">
-        <v>5.651</v>
-      </c>
-      <c r="E26">
-        <v>7.909</v>
-      </c>
-      <c r="F26">
-        <v>13.747</v>
-      </c>
-      <c r="G26">
-        <v>13.419</v>
-      </c>
-      <c r="H26">
-        <v>12.791</v>
-      </c>
-      <c r="I26">
-        <v>13.376</v>
-      </c>
-      <c r="J26">
-        <v>17.129</v>
-      </c>
-      <c r="K26">
-        <v>17.409</v>
-      </c>
-      <c r="L26">
-        <v>20.843</v>
-      </c>
-      <c r="M26">
-        <v>27.658</v>
-      </c>
-      <c r="N26">
-        <v>31.347</v>
-      </c>
-      <c r="O26">
-        <v>34.917</v>
-      </c>
-      <c r="P26">
-        <v>38.134</v>
-      </c>
-      <c r="Q26">
-        <v>31.435</v>
-      </c>
-      <c r="R26">
-        <v>29.419</v>
-      </c>
-      <c r="S26">
-        <v>32.734</v>
-      </c>
-      <c r="T26">
-        <v>38.685</v>
-      </c>
-      <c r="V26">
-        <v>42.671</v>
-      </c>
-      <c r="W26">
-        <v>41.34</v>
-      </c>
-      <c r="X26">
-        <v>44.804</v>
-      </c>
-      <c r="Y26">
-        <v>54.135</v>
-      </c>
-      <c r="Z26">
-        <v>55.474</v>
-      </c>
-      <c r="AA26">
-        <v>59.374</v>
-      </c>
-      <c r="AB26">
-        <v>59.46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28">
-      <c r="A27" t="s">
-        <v>377</v>
-      </c>
-      <c r="B27" t="s">
-        <v>956</v>
-      </c>
-      <c r="C27">
-        <v>6.757</v>
-      </c>
-      <c r="D27">
-        <v>8.218999999999999</v>
-      </c>
-      <c r="E27">
-        <v>9.553000000000001</v>
-      </c>
-      <c r="G27">
-        <v>17.91</v>
-      </c>
-      <c r="H27">
-        <v>14.493</v>
-      </c>
-      <c r="I27">
-        <v>13.76</v>
-      </c>
-      <c r="J27">
-        <v>10.92</v>
-      </c>
-      <c r="K27">
-        <v>10.233</v>
-      </c>
-      <c r="L27">
-        <v>9.217000000000001</v>
-      </c>
-      <c r="M27">
-        <v>13.397</v>
-      </c>
-      <c r="N27">
-        <v>11.617</v>
-      </c>
-      <c r="O27">
-        <v>14.863</v>
-      </c>
-      <c r="P27">
-        <v>16.176</v>
-      </c>
-      <c r="Q27">
-        <v>18.303</v>
-      </c>
-      <c r="R27">
-        <v>13.217</v>
-      </c>
-      <c r="S27">
-        <v>10.575</v>
-      </c>
-      <c r="T27">
-        <v>13.397</v>
-      </c>
-      <c r="U27">
-        <v>18.896</v>
-      </c>
-      <c r="V27">
-        <v>19.496</v>
-      </c>
-      <c r="W27">
-        <v>18.5</v>
-      </c>
-      <c r="Y27">
-        <v>30.22</v>
-      </c>
-      <c r="Z27">
-        <v>27.648</v>
-      </c>
-      <c r="AA27">
-        <v>31.423</v>
-      </c>
-      <c r="AB27">
-        <v>36.731</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28">
-      <c r="A28" t="s">
-        <v>403</v>
-      </c>
-      <c r="B28" t="s">
-        <v>982</v>
-      </c>
-      <c r="C28">
-        <v>4.499</v>
-      </c>
-      <c r="D28">
-        <v>5.716</v>
-      </c>
-      <c r="E28">
-        <v>6.123</v>
-      </c>
-      <c r="F28">
-        <v>14.832</v>
-      </c>
-      <c r="G28">
-        <v>18.987</v>
-      </c>
-      <c r="H28">
-        <v>13.382</v>
-      </c>
-      <c r="I28">
-        <v>13.349</v>
-      </c>
-      <c r="J28">
-        <v>12.853</v>
-      </c>
-      <c r="K28">
-        <v>12.077</v>
-      </c>
-      <c r="L28">
-        <v>12.377</v>
-      </c>
-      <c r="M28">
-        <v>17.431</v>
-      </c>
-      <c r="N28">
-        <v>14.061</v>
-      </c>
-      <c r="O28">
-        <v>16.523</v>
-      </c>
-      <c r="P28">
-        <v>14.964</v>
-      </c>
-      <c r="Q28">
-        <v>14.437</v>
-      </c>
-      <c r="R28">
-        <v>11.999</v>
-      </c>
-      <c r="S28">
-        <v>11.873</v>
-      </c>
-      <c r="T28">
-        <v>13.494</v>
-      </c>
-      <c r="U28">
-        <v>19.7</v>
-      </c>
-      <c r="V28">
-        <v>24.883</v>
-      </c>
-      <c r="W28">
-        <v>24.358</v>
-      </c>
-      <c r="X28">
-        <v>28.809</v>
-      </c>
-      <c r="Y28">
-        <v>28.353</v>
-      </c>
-      <c r="Z28">
-        <v>35.562</v>
-      </c>
-      <c r="AA28">
-        <v>39.539</v>
-      </c>
-      <c r="AB28">
-        <v>46.767</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
-      <c r="A29" t="s">
-        <v>405</v>
-      </c>
-      <c r="B29" t="s">
-        <v>984</v>
-      </c>
-      <c r="C29">
-        <v>6.575</v>
-      </c>
-      <c r="D29">
-        <v>9.002000000000001</v>
-      </c>
-      <c r="E29">
-        <v>10.016</v>
-      </c>
-      <c r="F29">
-        <v>20.757</v>
-      </c>
-      <c r="G29">
-        <v>25.195</v>
-      </c>
-      <c r="H29">
-        <v>18.829</v>
-      </c>
-      <c r="I29">
-        <v>18.34</v>
-      </c>
-      <c r="J29">
-        <v>17.133</v>
-      </c>
-      <c r="K29">
-        <v>16.252</v>
-      </c>
-      <c r="L29">
-        <v>15.55</v>
-      </c>
-      <c r="M29">
-        <v>20.108</v>
-      </c>
-      <c r="N29">
-        <v>17.819</v>
-      </c>
-      <c r="O29">
-        <v>20</v>
-      </c>
-      <c r="P29">
-        <v>18.235</v>
-      </c>
-      <c r="Q29">
-        <v>18.479</v>
-      </c>
-      <c r="R29">
-        <v>16.017</v>
-      </c>
-      <c r="S29">
-        <v>15.517</v>
-      </c>
-      <c r="T29">
-        <v>19.857</v>
-      </c>
-      <c r="U29">
-        <v>25.39</v>
-      </c>
-      <c r="V29">
-        <v>26.654</v>
-      </c>
-      <c r="W29">
-        <v>21.818</v>
-      </c>
-      <c r="X29">
-        <v>30.139</v>
-      </c>
-      <c r="Y29">
-        <v>29.552</v>
-      </c>
-      <c r="Z29">
-        <v>38.764</v>
-      </c>
-      <c r="AA29">
-        <v>43.469</v>
-      </c>
-      <c r="AB29">
-        <v>52.91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
-      <c r="A30" t="s">
-        <v>450</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C30">
-        <v>5.068</v>
-      </c>
-      <c r="D30">
-        <v>6.269</v>
-      </c>
-      <c r="E30">
-        <v>7.44</v>
-      </c>
-      <c r="F30">
-        <v>17.892</v>
-      </c>
-      <c r="G30">
-        <v>23.086</v>
-      </c>
-      <c r="H30">
-        <v>15.849</v>
-      </c>
-      <c r="I30">
-        <v>16.461</v>
-      </c>
-      <c r="J30">
-        <v>16.735</v>
-      </c>
-      <c r="K30">
-        <v>19.238</v>
-      </c>
-      <c r="L30">
-        <v>20.153</v>
-      </c>
-      <c r="M30">
-        <v>23.855</v>
-      </c>
-      <c r="N30">
-        <v>22.655</v>
-      </c>
-      <c r="O30">
-        <v>26.488</v>
-      </c>
-      <c r="P30">
-        <v>25.053</v>
-      </c>
-      <c r="Q30">
-        <v>22.001</v>
-      </c>
-      <c r="R30">
-        <v>14.291</v>
-      </c>
-      <c r="S30">
-        <v>11.695</v>
-      </c>
-      <c r="T30">
-        <v>18.597</v>
-      </c>
-      <c r="V30">
-        <v>19.67</v>
-      </c>
-      <c r="W30">
-        <v>19.095</v>
-      </c>
-      <c r="X30">
-        <v>24.816</v>
-      </c>
-      <c r="Y30">
-        <v>30.597</v>
-      </c>
-      <c r="Z30">
-        <v>27.164</v>
-      </c>
-      <c r="AA30">
-        <v>33.648</v>
-      </c>
-      <c r="AB30">
-        <v>40.297</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28">
-      <c r="A31" t="s">
-        <v>458</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C31">
-        <v>4.057</v>
-      </c>
-      <c r="D31">
-        <v>7.82</v>
-      </c>
-      <c r="E31">
-        <v>9.316000000000001</v>
-      </c>
-      <c r="F31">
-        <v>16.35</v>
-      </c>
-      <c r="G31">
-        <v>18.858</v>
-      </c>
-      <c r="H31">
-        <v>17.216</v>
-      </c>
-      <c r="I31">
-        <v>17.216</v>
-      </c>
-      <c r="J31">
-        <v>15.136</v>
-      </c>
-      <c r="K31">
-        <v>15.861</v>
-      </c>
-      <c r="L31">
-        <v>16.105</v>
-      </c>
-      <c r="M31">
-        <v>18.348</v>
-      </c>
-      <c r="N31">
-        <v>22.692</v>
-      </c>
-      <c r="O31">
-        <v>28.705</v>
-      </c>
-      <c r="P31">
-        <v>31.31</v>
-      </c>
-      <c r="Q31">
-        <v>31.153</v>
-      </c>
-      <c r="R31">
-        <v>26.782</v>
-      </c>
-      <c r="S31">
-        <v>21.209</v>
-      </c>
-      <c r="T31">
-        <v>25.484</v>
-      </c>
-      <c r="U31">
-        <v>29.308</v>
-      </c>
-      <c r="V31">
-        <v>27.514</v>
-      </c>
-      <c r="W31">
-        <v>26.201</v>
-      </c>
-      <c r="X31">
-        <v>33.213</v>
-      </c>
-      <c r="Y31">
-        <v>37.36</v>
-      </c>
-      <c r="Z31">
-        <v>37.36</v>
-      </c>
-      <c r="AA31">
-        <v>45.899</v>
-      </c>
-      <c r="AB31">
-        <v>50.477</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28">
-      <c r="A32" t="s">
-        <v>480</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C32">
-        <v>-0.425</v>
-      </c>
-      <c r="D32">
-        <v>4.878</v>
-      </c>
-      <c r="E32">
-        <v>6.354</v>
-      </c>
-      <c r="F32">
-        <v>10.725</v>
-      </c>
-      <c r="G32">
-        <v>9.127000000000001</v>
-      </c>
-      <c r="H32">
-        <v>10.205</v>
-      </c>
-      <c r="I32">
-        <v>10.595</v>
-      </c>
-      <c r="J32">
-        <v>14.206</v>
-      </c>
-      <c r="K32">
-        <v>12.722</v>
-      </c>
-      <c r="L32">
-        <v>13.459</v>
-      </c>
-      <c r="M32">
-        <v>16.563</v>
-      </c>
-      <c r="N32">
-        <v>21.456</v>
-      </c>
-      <c r="O32">
-        <v>25.455</v>
-      </c>
-      <c r="P32">
-        <v>30.885</v>
-      </c>
-      <c r="Q32">
-        <v>27.157</v>
-      </c>
-      <c r="R32">
-        <v>25.053</v>
-      </c>
-      <c r="S32">
-        <v>29.439</v>
-      </c>
-      <c r="T32">
-        <v>33.153</v>
-      </c>
-      <c r="U32">
-        <v>33.647</v>
-      </c>
-      <c r="V32">
-        <v>31.399</v>
-      </c>
-      <c r="W32">
-        <v>31.917</v>
-      </c>
-      <c r="X32">
-        <v>32.364</v>
-      </c>
-      <c r="Y32">
-        <v>35.423</v>
-      </c>
-      <c r="Z32">
-        <v>37.975</v>
-      </c>
-      <c r="AA32">
-        <v>36.409</v>
-      </c>
-      <c r="AB32">
-        <v>33.953</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28">
-      <c r="A33" t="s">
-        <v>491</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C33">
-        <v>4.684</v>
-      </c>
-      <c r="D33">
-        <v>7.002</v>
-      </c>
-      <c r="E33">
-        <v>8.364000000000001</v>
-      </c>
-      <c r="F33">
-        <v>14.579</v>
-      </c>
-      <c r="G33">
-        <v>16.977</v>
-      </c>
-      <c r="H33">
-        <v>14.249</v>
-      </c>
-      <c r="I33">
-        <v>12.843</v>
-      </c>
-      <c r="K33">
-        <v>12.594</v>
-      </c>
-      <c r="L33">
-        <v>9.997</v>
-      </c>
-      <c r="M33">
-        <v>15.021</v>
-      </c>
-      <c r="N33">
-        <v>13.021</v>
-      </c>
-      <c r="O33">
-        <v>12.808</v>
-      </c>
-      <c r="P33">
-        <v>13.596</v>
-      </c>
-      <c r="Q33">
-        <v>13.994</v>
-      </c>
-      <c r="R33">
-        <v>9.727</v>
-      </c>
-      <c r="S33">
-        <v>5.053</v>
-      </c>
-      <c r="T33">
-        <v>9.794</v>
-      </c>
-      <c r="U33">
-        <v>16.029</v>
-      </c>
-      <c r="V33">
-        <v>16.558</v>
-      </c>
-      <c r="W33">
-        <v>15.541</v>
-      </c>
-      <c r="X33">
-        <v>24.86</v>
-      </c>
-      <c r="Y33">
-        <v>33.036</v>
-      </c>
-      <c r="Z33">
-        <v>32.69</v>
-      </c>
-      <c r="AA33">
-        <v>41.232</v>
-      </c>
-      <c r="AB33">
-        <v>53.082</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28">
-      <c r="A34" t="s">
-        <v>508</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C34">
-        <v>2.258</v>
-      </c>
-      <c r="D34">
-        <v>0.309</v>
-      </c>
-      <c r="E34">
-        <v>-1.424</v>
-      </c>
-      <c r="F34">
-        <v>11.133</v>
-      </c>
-      <c r="G34">
-        <v>13.488</v>
-      </c>
-      <c r="H34">
-        <v>4.816</v>
-      </c>
-      <c r="I34">
-        <v>4.727</v>
-      </c>
-      <c r="J34">
-        <v>10.933</v>
-      </c>
-      <c r="K34">
-        <v>16.251</v>
-      </c>
-      <c r="L34">
-        <v>21.792</v>
-      </c>
-      <c r="M34">
-        <v>26.572</v>
-      </c>
-      <c r="N34">
-        <v>27.357</v>
-      </c>
-      <c r="O34">
-        <v>25.566</v>
-      </c>
-      <c r="P34">
-        <v>21.575</v>
-      </c>
-      <c r="Q34">
-        <v>19.546</v>
-      </c>
-      <c r="R34">
-        <v>12.288</v>
-      </c>
-      <c r="S34">
-        <v>10.1</v>
-      </c>
-      <c r="T34">
-        <v>15.294</v>
-      </c>
-      <c r="U34">
-        <v>20.458</v>
-      </c>
-      <c r="V34">
-        <v>27.2</v>
-      </c>
-      <c r="W34">
-        <v>16.648</v>
-      </c>
-      <c r="X34">
-        <v>29.909</v>
-      </c>
-      <c r="Y34">
-        <v>29.772</v>
-      </c>
-      <c r="Z34">
-        <v>31.884</v>
-      </c>
-      <c r="AA34">
-        <v>33.485</v>
-      </c>
-      <c r="AB34">
-        <v>49.237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28">
-      <c r="A35" t="s">
-        <v>515</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C35">
-        <v>5.294</v>
-      </c>
-      <c r="D35">
-        <v>7.094</v>
-      </c>
-      <c r="E35">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="F35">
-        <v>17.322</v>
-      </c>
-      <c r="G35">
-        <v>19.904</v>
-      </c>
-      <c r="H35">
-        <v>15.697</v>
-      </c>
-      <c r="I35">
-        <v>17.212</v>
-      </c>
-      <c r="J35">
-        <v>16.019</v>
-      </c>
-      <c r="K35">
-        <v>18.096</v>
-      </c>
-      <c r="L35">
-        <v>18.768</v>
-      </c>
-      <c r="M35">
-        <v>21.415</v>
-      </c>
-      <c r="N35">
-        <v>20.134</v>
-      </c>
-      <c r="O35">
-        <v>24.059</v>
-      </c>
-      <c r="P35">
-        <v>24.182</v>
-      </c>
-      <c r="Q35">
-        <v>21.769</v>
-      </c>
-      <c r="R35">
-        <v>16.019</v>
-      </c>
-      <c r="S35">
-        <v>13.087</v>
-      </c>
-      <c r="T35">
-        <v>18.768</v>
-      </c>
-      <c r="U35">
-        <v>21.532</v>
-      </c>
-      <c r="V35">
-        <v>20.481</v>
-      </c>
-      <c r="W35">
-        <v>18.431</v>
-      </c>
-      <c r="X35">
-        <v>24.429</v>
-      </c>
-      <c r="Y35">
-        <v>29.845</v>
-      </c>
-      <c r="Z35">
-        <v>24.801</v>
-      </c>
-      <c r="AA35">
-        <v>30.385</v>
-      </c>
-      <c r="AB35">
-        <v>40.471</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28">
-      <c r="A36" t="s">
-        <v>549</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C36">
-        <v>2.278</v>
-      </c>
-      <c r="D36">
-        <v>0.545</v>
-      </c>
-      <c r="E36">
-        <v>-1.092</v>
-      </c>
-      <c r="F36">
-        <v>11.253</v>
-      </c>
-      <c r="G36">
-        <v>13.741</v>
-      </c>
-      <c r="H36">
-        <v>5.238</v>
-      </c>
-      <c r="I36">
-        <v>5.193</v>
-      </c>
-      <c r="J36">
-        <v>11.377</v>
-      </c>
-      <c r="K36">
-        <v>16.643</v>
-      </c>
-      <c r="L36">
-        <v>21.715</v>
-      </c>
-      <c r="M36">
-        <v>26.344</v>
-      </c>
-      <c r="N36">
-        <v>26.762</v>
-      </c>
-      <c r="O36">
-        <v>25.17</v>
-      </c>
-      <c r="P36">
-        <v>21.448</v>
-      </c>
-      <c r="Q36">
-        <v>19.325</v>
-      </c>
-      <c r="R36">
-        <v>12.053</v>
-      </c>
-      <c r="S36">
-        <v>9.83</v>
-      </c>
-      <c r="T36">
-        <v>14.816</v>
-      </c>
-      <c r="U36">
-        <v>19.899</v>
-      </c>
-      <c r="V36">
-        <v>26.248</v>
-      </c>
-      <c r="W36">
-        <v>16.181</v>
-      </c>
-      <c r="X36">
-        <v>29.395</v>
-      </c>
-      <c r="Y36">
-        <v>28.96</v>
-      </c>
-      <c r="Z36">
-        <v>30.994</v>
-      </c>
-      <c r="AA36">
-        <v>32.456</v>
-      </c>
-      <c r="AB36">
-        <v>47.513</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28">
-      <c r="A37" t="s">
-        <v>551</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C37">
-        <v>8.601000000000001</v>
-      </c>
-      <c r="D37">
-        <v>14.818</v>
-      </c>
-      <c r="E37">
-        <v>16.626</v>
-      </c>
-      <c r="F37">
-        <v>20.494</v>
-      </c>
-      <c r="G37">
-        <v>30.675</v>
-      </c>
-      <c r="H37">
-        <v>23.035</v>
-      </c>
-      <c r="I37">
-        <v>21.521</v>
-      </c>
-      <c r="J37">
-        <v>15.68</v>
-      </c>
-      <c r="K37">
-        <v>12.833</v>
-      </c>
-      <c r="L37">
-        <v>11.397</v>
-      </c>
-      <c r="M37">
-        <v>15.472</v>
-      </c>
-      <c r="N37">
-        <v>20.494</v>
-      </c>
-      <c r="O37">
-        <v>22.332</v>
-      </c>
-      <c r="P37">
-        <v>26.636</v>
-      </c>
-      <c r="Q37">
-        <v>30.321</v>
-      </c>
-      <c r="R37">
-        <v>25.481</v>
-      </c>
-      <c r="S37">
-        <v>22.604</v>
-      </c>
-      <c r="T37">
-        <v>28.882</v>
-      </c>
-      <c r="U37">
-        <v>33.948</v>
-      </c>
-      <c r="V37">
-        <v>38.925</v>
-      </c>
-      <c r="W37">
-        <v>40.445</v>
-      </c>
-      <c r="X37">
-        <v>50.96</v>
-      </c>
-      <c r="Y37">
-        <v>63.594</v>
-      </c>
-      <c r="Z37">
-        <v>59.992</v>
-      </c>
-      <c r="AA37">
-        <v>65.066</v>
-      </c>
-      <c r="AB37">
-        <v>66.70999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
-      <c r="A38" t="s">
-        <v>605</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C38">
-        <v>1.996</v>
-      </c>
-      <c r="D38">
-        <v>8.493</v>
-      </c>
-      <c r="E38">
-        <v>10.885</v>
-      </c>
-      <c r="F38">
-        <v>14.8</v>
-      </c>
-      <c r="G38">
-        <v>15.708</v>
-      </c>
-      <c r="H38">
-        <v>16.042</v>
-      </c>
-      <c r="I38">
-        <v>16.63</v>
-      </c>
-      <c r="J38">
-        <v>18.695</v>
-      </c>
-      <c r="K38">
-        <v>16.757</v>
-      </c>
-      <c r="L38">
-        <v>18.128</v>
-      </c>
-      <c r="M38">
-        <v>20.381</v>
-      </c>
-      <c r="N38">
-        <v>26.782</v>
-      </c>
-      <c r="O38">
-        <v>32.306</v>
-      </c>
-      <c r="P38">
-        <v>38.75</v>
-      </c>
-      <c r="Q38">
-        <v>35.48</v>
-      </c>
-      <c r="R38">
-        <v>30.008</v>
-      </c>
-      <c r="S38">
-        <v>31.441</v>
-      </c>
-      <c r="T38">
-        <v>35.309</v>
-      </c>
-      <c r="U38">
-        <v>40.568</v>
-      </c>
-      <c r="V38">
-        <v>39.05</v>
-      </c>
-      <c r="W38">
-        <v>38.571</v>
-      </c>
-      <c r="X38">
-        <v>39.774</v>
-      </c>
-      <c r="Y38">
-        <v>46.053</v>
-      </c>
-      <c r="Z38">
-        <v>47.121</v>
-      </c>
-      <c r="AA38">
         <v>48.273</v>
       </c>
-      <c r="AB38">
+      <c r="AC22">
         <v>45.459</v>
       </c>
     </row>
